--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8238" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6979,7 +6979,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>89</v>
@@ -6991,76 +6991,76 @@
         <v>324</v>
       </c>
       <c r="G3">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="H3">
         <v>5429</v>
       </c>
       <c r="I3">
-        <v>7834</v>
+        <v>7835</v>
       </c>
       <c r="J3">
-        <v>11141</v>
+        <v>11142</v>
       </c>
       <c r="K3">
-        <v>15721</v>
+        <v>15722</v>
       </c>
       <c r="L3">
-        <v>18371</v>
+        <v>18379</v>
       </c>
       <c r="M3">
-        <v>23967</v>
+        <v>23970</v>
       </c>
       <c r="N3">
-        <v>24537</v>
+        <v>24540</v>
       </c>
       <c r="O3">
-        <v>40711</v>
+        <v>40720</v>
       </c>
       <c r="P3">
-        <v>42052</v>
+        <v>42064</v>
       </c>
       <c r="Q3">
-        <v>44047</v>
+        <v>44060</v>
       </c>
       <c r="R3">
-        <v>46655</v>
+        <v>46671</v>
       </c>
       <c r="S3">
-        <v>52872</v>
+        <v>52890</v>
       </c>
       <c r="T3">
-        <v>54498</v>
+        <v>54516</v>
       </c>
       <c r="U3">
-        <v>55240</v>
+        <v>55257</v>
       </c>
       <c r="V3">
-        <v>62050</v>
+        <v>62070</v>
       </c>
       <c r="W3">
-        <v>82221</v>
+        <v>82242</v>
       </c>
       <c r="X3">
-        <v>86429</v>
+        <v>86456</v>
       </c>
       <c r="Y3">
-        <v>95073</v>
+        <v>95097</v>
       </c>
       <c r="Z3">
-        <v>123237</v>
+        <v>123261</v>
       </c>
       <c r="AA3">
-        <v>147115</v>
+        <v>147160</v>
       </c>
       <c r="AB3">
-        <v>153527</v>
+        <v>153570</v>
       </c>
       <c r="AC3">
-        <v>185653</v>
+        <v>185696</v>
       </c>
       <c r="AD3">
-        <v>218198</v>
+        <v>218244</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7071,7 +7071,7 @@
         <v>29426</v>
       </c>
       <c r="C4">
-        <v>26488</v>
+        <v>26772</v>
       </c>
       <c r="D4">
         <v>24086</v>
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2088</v>
+        <v>2108</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7196,7 +7196,7 @@
         <v>210</v>
       </c>
       <c r="N5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7255,7 +7255,7 @@
         <v>793</v>
       </c>
       <c r="C6">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7439,7 +7439,7 @@
         <v>1293</v>
       </c>
       <c r="C8">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7564,7 +7564,7 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9">
         <v>14</v>
@@ -16318,6 +16318,9 @@
       <c r="B380" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C380" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D380" s="3" t="s">
         <v>74</v>
       </c>
@@ -16383,6 +16386,9 @@
       <c r="B384" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C384" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D384" s="3" t="s">
         <v>74</v>
       </c>
@@ -16439,6 +16445,9 @@
       <c r="A388" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="C388" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D388" s="3" t="s">
         <v>99</v>
       </c>
@@ -16879,6 +16888,9 @@
       <c r="A413" s="2" t="s">
         <v>581</v>
       </c>
+      <c r="C413" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D413" s="3" t="s">
         <v>89</v>
       </c>
@@ -17465,6 +17477,9 @@
       <c r="A454" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="C454" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="2" t="s">
@@ -34345,6 +34360,9 @@
       <c r="I1754" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="N1754" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="1755" spans="1:20">
       <c r="A1755" s="2" t="s">
@@ -35183,7 +35201,7 @@
         <v>2045</v>
       </c>
       <c r="C1838" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I1838" s="3" t="s">
         <v>74</v>
@@ -35593,7 +35611,7 @@
         <v>79</v>
       </c>
       <c r="C1881" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="N1881" s="4" t="s">
         <v>93</v>

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8254" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6979,7 +6979,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>89</v>
@@ -6997,70 +6997,70 @@
         <v>5429</v>
       </c>
       <c r="I3">
-        <v>7835</v>
+        <v>7838</v>
       </c>
       <c r="J3">
-        <v>11142</v>
+        <v>11145</v>
       </c>
       <c r="K3">
-        <v>15722</v>
+        <v>15725</v>
       </c>
       <c r="L3">
-        <v>18379</v>
+        <v>18383</v>
       </c>
       <c r="M3">
-        <v>23970</v>
+        <v>23981</v>
       </c>
       <c r="N3">
-        <v>24540</v>
+        <v>24548</v>
       </c>
       <c r="O3">
-        <v>40720</v>
+        <v>40742</v>
       </c>
       <c r="P3">
-        <v>42064</v>
+        <v>42085</v>
       </c>
       <c r="Q3">
-        <v>44060</v>
+        <v>44076</v>
       </c>
       <c r="R3">
-        <v>46671</v>
+        <v>46693</v>
       </c>
       <c r="S3">
-        <v>52890</v>
+        <v>52905</v>
       </c>
       <c r="T3">
-        <v>54516</v>
+        <v>54533</v>
       </c>
       <c r="U3">
-        <v>55257</v>
+        <v>55273</v>
       </c>
       <c r="V3">
-        <v>62070</v>
+        <v>62092</v>
       </c>
       <c r="W3">
-        <v>82242</v>
+        <v>82267</v>
       </c>
       <c r="X3">
-        <v>86456</v>
+        <v>86480</v>
       </c>
       <c r="Y3">
-        <v>95097</v>
+        <v>95121</v>
       </c>
       <c r="Z3">
-        <v>123261</v>
+        <v>123292</v>
       </c>
       <c r="AA3">
-        <v>147160</v>
+        <v>147186</v>
       </c>
       <c r="AB3">
-        <v>153570</v>
+        <v>153591</v>
       </c>
       <c r="AC3">
-        <v>185696</v>
+        <v>185724</v>
       </c>
       <c r="AD3">
-        <v>218244</v>
+        <v>218282</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7071,7 +7071,7 @@
         <v>29426</v>
       </c>
       <c r="C4">
-        <v>26772</v>
+        <v>27411</v>
       </c>
       <c r="D4">
         <v>24086</v>
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2108</v>
+        <v>2124</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7255,7 +7255,7 @@
         <v>793</v>
       </c>
       <c r="C6">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7439,7 +7439,7 @@
         <v>1293</v>
       </c>
       <c r="C8">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -24902,6 +24902,9 @@
       <c r="B910" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C910" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D910" s="3" t="s">
         <v>83</v>
       </c>
@@ -25191,6 +25194,9 @@
       <c r="B924" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="C924" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D924" s="3" t="s">
         <v>74</v>
       </c>
@@ -25216,6 +25222,9 @@
       <c r="B926" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C926" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="927" spans="1:16">
       <c r="A927" s="2" t="s">
@@ -25224,6 +25233,9 @@
       <c r="B927" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C927" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E927" s="3" t="s">
         <v>74</v>
       </c>
@@ -25481,6 +25493,9 @@
       <c r="A943" s="2" t="s">
         <v>1134</v>
       </c>
+      <c r="C943" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D943" s="3" t="s">
         <v>83</v>
       </c>
@@ -25569,6 +25584,9 @@
       <c r="B948" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C948" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D948" s="3" t="s">
         <v>68</v>
       </c>
@@ -26266,6 +26284,9 @@
       <c r="B983" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="C983" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="984" spans="1:16">
       <c r="A984" s="2" t="s">
@@ -26274,6 +26295,9 @@
       <c r="B984" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C984" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="985" spans="1:16">
       <c r="A985" s="2" t="s">
@@ -26307,6 +26331,9 @@
       <c r="B987" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C987" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D987" s="3" t="s">
         <v>78</v>
       </c>
@@ -26320,6 +26347,9 @@
       </c>
       <c r="B988" s="3" t="s">
         <v>164</v>
+      </c>
+      <c r="C988" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D988" s="3" t="s">
         <v>78</v>

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8275" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6991,76 +6991,76 @@
         <v>329</v>
       </c>
       <c r="G3">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="H3">
-        <v>5516</v>
+        <v>5520</v>
       </c>
       <c r="I3">
         <v>7959</v>
       </c>
       <c r="J3">
-        <v>11126</v>
+        <v>11136</v>
       </c>
       <c r="K3">
-        <v>16012</v>
+        <v>16021</v>
       </c>
       <c r="L3">
-        <v>18737</v>
+        <v>18754</v>
       </c>
       <c r="M3">
-        <v>23442</v>
+        <v>23460</v>
       </c>
       <c r="N3">
-        <v>24457</v>
+        <v>24478</v>
       </c>
       <c r="O3">
-        <v>41589</v>
+        <v>41632</v>
       </c>
       <c r="P3">
-        <v>42968</v>
+        <v>43010</v>
       </c>
       <c r="Q3">
-        <v>45025</v>
+        <v>45068</v>
       </c>
       <c r="R3">
-        <v>47679</v>
+        <v>47720</v>
       </c>
       <c r="S3">
-        <v>53972</v>
+        <v>54030</v>
       </c>
       <c r="T3">
-        <v>55643</v>
+        <v>55700</v>
       </c>
       <c r="U3">
-        <v>56403</v>
+        <v>56462</v>
       </c>
       <c r="V3">
-        <v>63342</v>
+        <v>63403</v>
       </c>
       <c r="W3">
-        <v>83760</v>
+        <v>83839</v>
       </c>
       <c r="X3">
-        <v>88036</v>
+        <v>88116</v>
       </c>
       <c r="Y3">
-        <v>96853</v>
+        <v>96922</v>
       </c>
       <c r="Z3">
-        <v>125547</v>
+        <v>125661</v>
       </c>
       <c r="AA3">
-        <v>149872</v>
+        <v>150009</v>
       </c>
       <c r="AB3">
-        <v>156393</v>
+        <v>156540</v>
       </c>
       <c r="AC3">
-        <v>189175</v>
+        <v>189364</v>
       </c>
       <c r="AD3">
-        <v>222512</v>
+        <v>222735</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7184,7 +7184,7 @@
         <v>861</v>
       </c>
       <c r="J5">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K5">
         <v>276</v>
@@ -7368,7 +7368,7 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -7552,7 +7552,7 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -11215,6 +11215,9 @@
       </c>
       <c r="H130" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>74</v>

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8280" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6988,79 +6988,79 @@
         <v>92</v>
       </c>
       <c r="F3">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G3">
-        <v>3489</v>
+        <v>3493</v>
       </c>
       <c r="H3">
-        <v>5520</v>
+        <v>5528</v>
       </c>
       <c r="I3">
-        <v>7959</v>
+        <v>7966</v>
       </c>
       <c r="J3">
-        <v>11136</v>
+        <v>11162</v>
       </c>
       <c r="K3">
-        <v>16021</v>
+        <v>16059</v>
       </c>
       <c r="L3">
-        <v>18754</v>
+        <v>18806</v>
       </c>
       <c r="M3">
-        <v>23460</v>
+        <v>23533</v>
       </c>
       <c r="N3">
-        <v>24478</v>
+        <v>24557</v>
       </c>
       <c r="O3">
-        <v>41632</v>
+        <v>41761</v>
       </c>
       <c r="P3">
-        <v>43010</v>
+        <v>43144</v>
       </c>
       <c r="Q3">
-        <v>45068</v>
+        <v>45203</v>
       </c>
       <c r="R3">
-        <v>47720</v>
+        <v>47870</v>
       </c>
       <c r="S3">
-        <v>54030</v>
+        <v>54193</v>
       </c>
       <c r="T3">
-        <v>55700</v>
+        <v>55862</v>
       </c>
       <c r="U3">
-        <v>56462</v>
+        <v>56627</v>
       </c>
       <c r="V3">
-        <v>63403</v>
+        <v>63591</v>
       </c>
       <c r="W3">
-        <v>83839</v>
+        <v>84105</v>
       </c>
       <c r="X3">
-        <v>88116</v>
+        <v>88400</v>
       </c>
       <c r="Y3">
-        <v>96922</v>
+        <v>97263</v>
       </c>
       <c r="Z3">
-        <v>125661</v>
+        <v>126089</v>
       </c>
       <c r="AA3">
-        <v>150009</v>
+        <v>150535</v>
       </c>
       <c r="AB3">
-        <v>156540</v>
+        <v>157090</v>
       </c>
       <c r="AC3">
-        <v>189364</v>
+        <v>190122</v>
       </c>
       <c r="AD3">
-        <v>222735</v>
+        <v>223687</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7163,7 +7163,7 @@
         <v>4576</v>
       </c>
       <c r="C5">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7193,7 +7193,7 @@
         <v>360</v>
       </c>
       <c r="M5">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N5">
         <v>210</v>
@@ -7377,7 +7377,7 @@
         <v>11</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -7469,7 +7469,7 @@
         <v>123</v>
       </c>
       <c r="M8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N8">
         <v>61</v>
@@ -7561,7 +7561,7 @@
         <v>19</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -8827,6 +8827,9 @@
       <c r="J38" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="M38" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="O38" s="4" t="s">
         <v>93</v>
       </c>
@@ -26300,6 +26303,9 @@
       <c r="D982" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M982" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="983" spans="1:16">
       <c r="A983" s="2" t="s">
@@ -27342,7 +27348,7 @@
         <v>81</v>
       </c>
       <c r="C1090" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D1090" s="3" t="s">
         <v>74</v>
@@ -33744,6 +33750,9 @@
       <c r="B1680" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M1680" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
@@ -34093,6 +34102,9 @@
     <row r="1717" spans="1:13">
       <c r="A1717" s="2" t="s">
         <v>1921</v>
+      </c>
+      <c r="M1717" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="1718" spans="1:13">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1921</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1943</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8280" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8340" uniqueCount="2153">
   <si>
     <t>№</t>
   </si>
@@ -757,192 +757,195 @@
     <t>104</t>
   </si>
   <si>
+    <t>2+, 17-</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2+, 9-</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>7+, 1-</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>4+, 4-</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>2+, 11-</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>2+, 10-</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>1+, 26-</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1+, 36-</t>
+  </si>
+  <si>
+    <t>27-</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>3+, 4-</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>1+, 33-</t>
+  </si>
+  <si>
+    <t>8+, 5-</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>1+, 15-</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>2+, 9-</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>7+, 1-</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>4+, 4-</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>2+, 11-</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>2+, 10-</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>1+, 26-</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>1+, 36-</t>
-  </si>
-  <si>
-    <t>27-</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>3+, 4-</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>1+, 33-</t>
-  </si>
-  <si>
-    <t>8+, 5-</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
@@ -2809,9 +2812,6 @@
     <t>737</t>
   </si>
   <si>
-    <t>2+, 17-</t>
-  </si>
-  <si>
     <t>738</t>
   </si>
   <si>
@@ -6410,6 +6410,72 @@
   </si>
   <si>
     <t>1912</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
   </si>
 </sst>
 </file>
@@ -6775,7 +6841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1921"/>
+  <dimension ref="A1:AD1943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6976,91 +7042,91 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>64</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G3">
-        <v>3493</v>
+        <v>3551</v>
       </c>
       <c r="H3">
-        <v>5528</v>
+        <v>5653</v>
       </c>
       <c r="I3">
-        <v>7966</v>
+        <v>8237</v>
       </c>
       <c r="J3">
-        <v>11162</v>
+        <v>11538</v>
       </c>
       <c r="K3">
-        <v>16059</v>
+        <v>16621</v>
       </c>
       <c r="L3">
-        <v>18806</v>
+        <v>19372</v>
       </c>
       <c r="M3">
-        <v>23533</v>
+        <v>21929</v>
       </c>
       <c r="N3">
-        <v>24557</v>
+        <v>25269</v>
       </c>
       <c r="O3">
-        <v>41761</v>
+        <v>42873</v>
       </c>
       <c r="P3">
-        <v>43144</v>
+        <v>44288</v>
       </c>
       <c r="Q3">
-        <v>45203</v>
+        <v>46414</v>
       </c>
       <c r="R3">
-        <v>47870</v>
+        <v>49131</v>
       </c>
       <c r="S3">
-        <v>54193</v>
+        <v>55604</v>
       </c>
       <c r="T3">
-        <v>55862</v>
+        <v>57294</v>
       </c>
       <c r="U3">
-        <v>56627</v>
+        <v>58073</v>
       </c>
       <c r="V3">
-        <v>63591</v>
+        <v>65222</v>
       </c>
       <c r="W3">
-        <v>84105</v>
+        <v>86334</v>
       </c>
       <c r="X3">
-        <v>88400</v>
+        <v>90748</v>
       </c>
       <c r="Y3">
-        <v>97263</v>
+        <v>99822</v>
       </c>
       <c r="Z3">
-        <v>126089</v>
+        <v>129244</v>
       </c>
       <c r="AA3">
-        <v>150535</v>
+        <v>154179</v>
       </c>
       <c r="AB3">
-        <v>157090</v>
+        <v>160870</v>
       </c>
       <c r="AC3">
-        <v>190122</v>
+        <v>194454</v>
       </c>
       <c r="AD3">
-        <v>223687</v>
+        <v>228548</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7068,7 +7134,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>29426</v>
+        <v>30020</v>
       </c>
       <c r="C4">
         <v>27411</v>
@@ -7101,7 +7167,7 @@
         <v>1105</v>
       </c>
       <c r="M4">
-        <v>859</v>
+        <v>964</v>
       </c>
       <c r="N4">
         <v>817</v>
@@ -7160,10 +7226,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>4576</v>
+        <v>4664</v>
       </c>
       <c r="C5">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7181,7 +7247,7 @@
         <v>392</v>
       </c>
       <c r="I5">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J5">
         <v>412</v>
@@ -7193,10 +7259,10 @@
         <v>360</v>
       </c>
       <c r="M5">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="N5">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7252,7 +7318,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C6">
         <v>780</v>
@@ -7285,7 +7351,7 @@
         <v>82</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>52</v>
@@ -7377,10 +7443,10 @@
         <v>11</v>
       </c>
       <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>7</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
       </c>
       <c r="O7">
         <v>14</v>
@@ -7436,10 +7502,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1296</v>
+        <v>1322</v>
       </c>
       <c r="C8">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7469,7 +7535,7 @@
         <v>123</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>61</v>
@@ -7528,7 +7594,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -7561,10 +7627,10 @@
         <v>19</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9">
         <v>14</v>
@@ -10444,6 +10510,9 @@
       <c r="A98" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="B98" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C98" s="3" t="s">
         <v>80</v>
       </c>
@@ -10753,7 +10822,7 @@
         <v>89</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>74</v>
@@ -11827,8 +11896,8 @@
       <c r="I155" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M155" s="4" t="s">
-        <v>100</v>
+      <c r="M155" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12072,7 +12141,7 @@
         <v>83</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>74</v>
@@ -12080,15 +12149,15 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>83</v>
@@ -12108,7 +12177,7 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>74</v>
@@ -12132,7 +12201,7 @@
         <v>93</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="R166" s="4" t="s">
         <v>150</v>
@@ -12140,7 +12209,7 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>74</v>
@@ -12157,7 +12226,7 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>74</v>
@@ -12177,7 +12246,7 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>79</v>
@@ -12194,7 +12263,7 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>74</v>
@@ -12211,7 +12280,7 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>83</v>
@@ -12228,7 +12297,7 @@
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>74</v>
@@ -12260,7 +12329,7 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>91</v>
@@ -12283,7 +12352,7 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>89</v>
@@ -12306,7 +12375,7 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>89</v>
@@ -12320,7 +12389,7 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>74</v>
@@ -12337,7 +12406,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>74</v>
@@ -12360,7 +12429,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>83</v>
@@ -12386,7 +12455,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>74</v>
@@ -12395,7 +12464,7 @@
         <v>74</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>78</v>
@@ -12406,7 +12475,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>89</v>
@@ -12426,7 +12495,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>74</v>
@@ -12449,7 +12518,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>74</v>
@@ -12472,7 +12541,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>79</v>
@@ -12495,7 +12564,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>74</v>
@@ -12509,7 +12578,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>74</v>
@@ -12523,7 +12592,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>89</v>
@@ -12534,7 +12603,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>97</v>
@@ -12557,7 +12626,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>74</v>
@@ -12577,7 +12646,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>74</v>
@@ -12597,7 +12666,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>83</v>
@@ -12611,7 +12680,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>74</v>
@@ -12631,7 +12700,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>89</v>
@@ -12648,7 +12717,7 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>74</v>
@@ -12665,7 +12734,7 @@
     </row>
     <row r="194" spans="1:27">
       <c r="A194" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>83</v>
@@ -12688,7 +12757,7 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>113</v>
@@ -12705,7 +12774,7 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>74</v>
@@ -12725,7 +12794,7 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>80</v>
@@ -12742,7 +12811,7 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>80</v>
@@ -12759,7 +12828,7 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>74</v>
@@ -12776,7 +12845,7 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>80</v>
@@ -12793,7 +12862,7 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>89</v>
@@ -12813,7 +12882,7 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>83</v>
@@ -12833,7 +12902,7 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>99</v>
@@ -12850,7 +12919,7 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>74</v>
@@ -12912,7 +12981,7 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>74</v>
@@ -12932,7 +13001,7 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>74</v>
@@ -12952,7 +13021,7 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>74</v>
@@ -12961,12 +13030,12 @@
         <v>74</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:27">
       <c r="A208" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>80</v>
@@ -12980,7 +13049,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>79</v>
@@ -12994,7 +13063,7 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>83</v>
@@ -13002,10 +13071,10 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>74</v>
@@ -13025,13 +13094,13 @@
       <c r="K211" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M211" s="4" t="s">
-        <v>150</v>
+      <c r="M211" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>83</v>
@@ -13051,7 +13120,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>74</v>
@@ -13068,7 +13137,7 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>89</v>
@@ -13079,7 +13148,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>74</v>
@@ -13096,7 +13165,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>74</v>
@@ -13116,7 +13185,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>74</v>
@@ -13139,7 +13208,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>74</v>
@@ -13159,7 +13228,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>80</v>
@@ -13179,7 +13248,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>74</v>
@@ -13199,7 +13268,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>74</v>
@@ -13207,7 +13276,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>74</v>
@@ -13227,7 +13296,7 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>81</v>
@@ -13244,7 +13313,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>89</v>
@@ -13267,7 +13336,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>74</v>
@@ -13276,7 +13345,7 @@
         <v>74</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>74</v>
@@ -13284,7 +13353,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>113</v>
@@ -13298,7 +13367,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>74</v>
@@ -13306,10 +13375,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>69</v>
@@ -13317,12 +13386,12 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>74</v>
@@ -13336,7 +13405,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>74</v>
@@ -13347,7 +13416,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>79</v>
@@ -13355,10 +13424,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>74</v>
@@ -13367,7 +13436,7 @@
         <v>109</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>86</v>
@@ -13375,7 +13444,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>74</v>
@@ -13395,12 +13464,12 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>74</v>
@@ -13414,7 +13483,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>83</v>
@@ -13425,7 +13494,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>78</v>
@@ -13433,7 +13502,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>74</v>
@@ -13444,7 +13513,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>110</v>
@@ -13467,7 +13536,7 @@
     </row>
     <row r="241" spans="1:20">
       <c r="A241" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>93</v>
@@ -13475,7 +13544,7 @@
     </row>
     <row r="242" spans="1:20">
       <c r="A242" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>79</v>
@@ -13519,7 +13588,7 @@
     </row>
     <row r="243" spans="1:20">
       <c r="A243" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>74</v>
@@ -13539,7 +13608,7 @@
     </row>
     <row r="244" spans="1:20">
       <c r="A244" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>79</v>
@@ -13556,7 +13625,7 @@
     </row>
     <row r="245" spans="1:20">
       <c r="A245" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>165</v>
@@ -13576,7 +13645,7 @@
     </row>
     <row r="246" spans="1:20">
       <c r="A246" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>74</v>
@@ -13590,7 +13659,7 @@
     </row>
     <row r="247" spans="1:20">
       <c r="A247" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>83</v>
@@ -13604,7 +13673,7 @@
     </row>
     <row r="248" spans="1:20">
       <c r="A248" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>83</v>
@@ -13612,12 +13681,12 @@
     </row>
     <row r="249" spans="1:20">
       <c r="A249" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="250" spans="1:20">
       <c r="A250" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>74</v>
@@ -13628,12 +13697,12 @@
     </row>
     <row r="251" spans="1:20">
       <c r="A251" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:20">
       <c r="A252" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>74</v>
@@ -13647,7 +13716,7 @@
     </row>
     <row r="253" spans="1:20">
       <c r="A253" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>114</v>
@@ -13658,7 +13727,7 @@
     </row>
     <row r="254" spans="1:20">
       <c r="A254" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>74</v>
@@ -13675,7 +13744,7 @@
     </row>
     <row r="255" spans="1:20">
       <c r="A255" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>83</v>
@@ -13698,7 +13767,7 @@
     </row>
     <row r="256" spans="1:20">
       <c r="A256" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>74</v>
@@ -13709,7 +13778,7 @@
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>74</v>
@@ -13720,7 +13789,7 @@
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>81</v>
@@ -13737,7 +13806,7 @@
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>78</v>
@@ -13757,15 +13826,15 @@
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>80</v>
@@ -13782,7 +13851,7 @@
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>83</v>
@@ -13802,7 +13871,7 @@
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>74</v>
@@ -13828,7 +13897,7 @@
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>74</v>
@@ -13845,7 +13914,7 @@
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>89</v>
@@ -13857,18 +13926,18 @@
         <v>89</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>86</v>
@@ -13879,7 +13948,10 @@
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>78</v>
@@ -13887,7 +13959,7 @@
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>89</v>
@@ -13901,7 +13973,7 @@
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>74</v>
@@ -13921,18 +13993,18 @@
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>80</v>
@@ -13949,7 +14021,7 @@
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>89</v>
@@ -13978,7 +14050,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>74</v>
@@ -14019,7 +14091,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>74</v>
@@ -14042,7 +14114,7 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>80</v>
@@ -14065,7 +14137,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>83</v>
@@ -14091,7 +14163,7 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>74</v>
@@ -14108,7 +14180,7 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>74</v>
@@ -14122,7 +14194,7 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>83</v>
@@ -14139,7 +14211,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>74</v>
@@ -14171,13 +14243,13 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>110</v>
@@ -14203,7 +14275,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>90</v>
@@ -14226,7 +14298,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>74</v>
@@ -14252,7 +14324,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>224</v>
@@ -14272,7 +14344,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>74</v>
@@ -14307,7 +14379,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>78</v>
@@ -14330,7 +14402,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>74</v>
@@ -14353,10 +14425,10 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>74</v>
@@ -14370,7 +14442,7 @@
     </row>
     <row r="289" spans="1:17">
       <c r="A289" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>89</v>
@@ -14390,7 +14462,7 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>74</v>
@@ -14413,7 +14485,7 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>81</v>
@@ -14433,7 +14505,7 @@
     </row>
     <row r="292" spans="1:17">
       <c r="A292" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>79</v>
@@ -14456,7 +14528,7 @@
     </row>
     <row r="293" spans="1:17">
       <c r="A293" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>74</v>
@@ -14491,7 +14563,7 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>74</v>
@@ -14514,10 +14586,10 @@
     </row>
     <row r="295" spans="1:17">
       <c r="A295" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>89</v>
@@ -14534,7 +14606,7 @@
     </row>
     <row r="296" spans="1:17">
       <c r="A296" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>74</v>
@@ -14554,7 +14626,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>89</v>
@@ -14562,7 +14634,7 @@
     </row>
     <row r="298" spans="1:17">
       <c r="A298" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>78</v>
@@ -14576,7 +14648,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>74</v>
@@ -14593,7 +14665,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="A300" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>89</v>
@@ -14613,7 +14685,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>79</v>
@@ -14630,7 +14702,7 @@
     </row>
     <row r="302" spans="1:17">
       <c r="A302" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>74</v>
@@ -14662,7 +14734,7 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>83</v>
@@ -14688,7 +14760,7 @@
     </row>
     <row r="304" spans="1:17">
       <c r="A304" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>83</v>
@@ -14697,7 +14769,7 @@
         <v>89</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>83</v>
@@ -14708,7 +14780,7 @@
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>83</v>
@@ -14732,7 +14804,7 @@
         <v>74</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>74</v>
@@ -14743,7 +14815,7 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>74</v>
@@ -14775,7 +14847,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>80</v>
@@ -14798,7 +14870,7 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>99</v>
@@ -14815,7 +14887,7 @@
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>89</v>
@@ -14826,7 +14898,7 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>83</v>
@@ -14843,7 +14915,7 @@
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>98</v>
@@ -14863,7 +14935,7 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>74</v>
@@ -14880,7 +14952,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>83</v>
@@ -14897,7 +14969,7 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>74</v>
@@ -14914,7 +14986,7 @@
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>83</v>
@@ -14928,7 +15000,10 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>74</v>
@@ -14942,7 +15017,7 @@
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>224</v>
@@ -14959,7 +15034,7 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>83</v>
@@ -14976,7 +15051,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>80</v>
@@ -14993,7 +15068,7 @@
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>79</v>
@@ -15016,7 +15091,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>80</v>
@@ -15078,7 +15153,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>83</v>
@@ -15095,7 +15170,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>74</v>
@@ -15118,7 +15193,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>143</v>
@@ -15144,7 +15219,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>74</v>
@@ -15155,7 +15230,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>113</v>
@@ -15175,7 +15250,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>83</v>
@@ -15195,7 +15270,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>74</v>
@@ -15215,7 +15290,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>83</v>
@@ -15232,7 +15307,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>74</v>
@@ -15252,7 +15327,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>89</v>
@@ -15275,7 +15350,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>99</v>
@@ -15295,7 +15370,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>74</v>
@@ -15345,7 +15420,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>74</v>
@@ -15365,7 +15440,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>83</v>
@@ -15374,7 +15449,7 @@
         <v>74</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>89</v>
@@ -15385,7 +15460,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>109</v>
@@ -15426,7 +15501,7 @@
     </row>
     <row r="337" spans="1:23">
       <c r="A337" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>74</v>
@@ -15470,7 +15545,7 @@
     </row>
     <row r="338" spans="1:23">
       <c r="A338" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>84</v>
@@ -15490,7 +15565,7 @@
     </row>
     <row r="339" spans="1:23">
       <c r="A339" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>74</v>
@@ -15510,7 +15585,7 @@
     </row>
     <row r="340" spans="1:23">
       <c r="A340" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>83</v>
@@ -15548,7 +15623,7 @@
     </row>
     <row r="341" spans="1:23">
       <c r="A341" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>74</v>
@@ -15565,7 +15640,7 @@
     </row>
     <row r="342" spans="1:23">
       <c r="A342" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>83</v>
@@ -15585,7 +15660,7 @@
     </row>
     <row r="343" spans="1:23">
       <c r="A343" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>83</v>
@@ -15602,7 +15677,7 @@
     </row>
     <row r="344" spans="1:23">
       <c r="A344" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>74</v>
@@ -15616,7 +15691,7 @@
     </row>
     <row r="345" spans="1:23">
       <c r="A345" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>74</v>
@@ -15654,13 +15729,13 @@
     </row>
     <row r="346" spans="1:23">
       <c r="A346" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N346" s="4" t="s">
         <v>150</v>
@@ -15671,7 +15746,7 @@
     </row>
     <row r="347" spans="1:23">
       <c r="A347" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>74</v>
@@ -15691,7 +15766,7 @@
     </row>
     <row r="348" spans="1:23">
       <c r="A348" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>74</v>
@@ -15708,7 +15783,7 @@
     </row>
     <row r="349" spans="1:23">
       <c r="A349" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>72</v>
@@ -15743,7 +15818,7 @@
     </row>
     <row r="350" spans="1:23">
       <c r="A350" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>74</v>
@@ -15760,7 +15835,7 @@
     </row>
     <row r="351" spans="1:23">
       <c r="A351" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>79</v>
@@ -15774,7 +15849,7 @@
     </row>
     <row r="352" spans="1:23">
       <c r="A352" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>83</v>
@@ -15786,15 +15861,15 @@
         <v>89</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>83</v>
@@ -15811,7 +15886,7 @@
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>74</v>
@@ -15828,7 +15903,7 @@
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>86</v>
@@ -15848,7 +15923,7 @@
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>74</v>
@@ -15871,7 +15946,7 @@
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>86</v>
@@ -15891,7 +15966,7 @@
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>110</v>
@@ -15914,7 +15989,7 @@
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>74</v>
@@ -15934,7 +16009,7 @@
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>227</v>
@@ -15954,7 +16029,7 @@
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>74</v>
@@ -15963,7 +16038,7 @@
         <v>74</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>89</v>
@@ -15974,7 +16049,7 @@
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>78</v>
@@ -15991,7 +16066,7 @@
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>86</v>
@@ -16011,7 +16086,7 @@
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>74</v>
@@ -16031,7 +16106,7 @@
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>78</v>
@@ -16048,7 +16123,7 @@
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>74</v>
@@ -16086,7 +16161,7 @@
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>86</v>
@@ -16103,7 +16178,7 @@
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>72</v>
@@ -16117,10 +16192,10 @@
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>77</v>
@@ -16131,7 +16206,7 @@
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>78</v>
@@ -16148,7 +16223,7 @@
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>143</v>
@@ -16159,7 +16234,7 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>74</v>
@@ -16185,7 +16260,7 @@
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>165</v>
@@ -16202,7 +16277,7 @@
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>74</v>
@@ -16222,7 +16297,7 @@
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>114</v>
@@ -16234,7 +16309,7 @@
         <v>77</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>83</v>
@@ -16242,7 +16317,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>74</v>
@@ -16265,7 +16340,7 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>83</v>
@@ -16282,7 +16357,7 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>74</v>
@@ -16296,7 +16371,7 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>79</v>
@@ -16325,7 +16400,7 @@
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>74</v>
@@ -16342,7 +16417,7 @@
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>234</v>
@@ -16359,7 +16434,7 @@
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>74</v>
@@ -16373,13 +16448,13 @@
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>83</v>
@@ -16393,7 +16468,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>83</v>
@@ -16410,7 +16485,7 @@
     </row>
     <row r="385" spans="1:17">
       <c r="A385" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -16424,7 +16499,7 @@
     </row>
     <row r="386" spans="1:17">
       <c r="A386" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>79</v>
@@ -16441,7 +16516,7 @@
     </row>
     <row r="387" spans="1:17">
       <c r="A387" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>98</v>
@@ -16455,7 +16530,7 @@
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>74</v>
@@ -16469,7 +16544,7 @@
     </row>
     <row r="389" spans="1:17">
       <c r="A389" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>89</v>
@@ -16486,7 +16561,7 @@
     </row>
     <row r="390" spans="1:17">
       <c r="A390" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>83</v>
@@ -16503,7 +16578,7 @@
     </row>
     <row r="391" spans="1:17">
       <c r="A391" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>83</v>
@@ -16523,7 +16598,7 @@
     </row>
     <row r="392" spans="1:17">
       <c r="A392" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>89</v>
@@ -16543,7 +16618,7 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>72</v>
@@ -16566,7 +16641,7 @@
     </row>
     <row r="394" spans="1:17">
       <c r="A394" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>79</v>
@@ -16583,7 +16658,7 @@
     </row>
     <row r="395" spans="1:17">
       <c r="A395" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>74</v>
@@ -16591,7 +16666,7 @@
     </row>
     <row r="396" spans="1:17">
       <c r="A396" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>78</v>
@@ -16617,7 +16692,7 @@
     </row>
     <row r="397" spans="1:17">
       <c r="A397" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>110</v>
@@ -16634,7 +16709,7 @@
     </row>
     <row r="398" spans="1:17">
       <c r="A398" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>74</v>
@@ -16645,7 +16720,7 @@
     </row>
     <row r="399" spans="1:17">
       <c r="A399" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>83</v>
@@ -16662,7 +16737,7 @@
     </row>
     <row r="400" spans="1:17">
       <c r="A400" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>74</v>
@@ -16676,7 +16751,7 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>83</v>
@@ -16694,12 +16769,12 @@
         <v>74</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="402" spans="1:17">
       <c r="A402" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>83</v>
@@ -16710,7 +16785,7 @@
     </row>
     <row r="403" spans="1:17">
       <c r="A403" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>90</v>
@@ -16739,7 +16814,7 @@
     </row>
     <row r="404" spans="1:17">
       <c r="A404" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>74</v>
@@ -16759,7 +16834,7 @@
     </row>
     <row r="405" spans="1:17">
       <c r="A405" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>89</v>
@@ -16782,7 +16857,7 @@
     </row>
     <row r="406" spans="1:17">
       <c r="A406" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>72</v>
@@ -16799,7 +16874,7 @@
     </row>
     <row r="407" spans="1:17">
       <c r="A407" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>78</v>
@@ -16828,7 +16903,7 @@
     </row>
     <row r="408" spans="1:17">
       <c r="A408" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>83</v>
@@ -16837,7 +16912,7 @@
         <v>74</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>81</v>
@@ -16845,7 +16920,7 @@
     </row>
     <row r="409" spans="1:17">
       <c r="A409" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>83</v>
@@ -16862,7 +16937,7 @@
     </row>
     <row r="410" spans="1:17">
       <c r="A410" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>74</v>
@@ -16879,7 +16954,10 @@
     </row>
     <row r="411" spans="1:17">
       <c r="A411" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>191</v>
@@ -16887,7 +16965,7 @@
     </row>
     <row r="412" spans="1:17">
       <c r="A412" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>83</v>
@@ -16898,7 +16976,7 @@
     </row>
     <row r="413" spans="1:17">
       <c r="A413" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>74</v>
@@ -16912,7 +16990,7 @@
     </row>
     <row r="414" spans="1:17">
       <c r="A414" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>82</v>
@@ -16926,7 +17004,7 @@
     </row>
     <row r="415" spans="1:17">
       <c r="A415" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>83</v>
@@ -16934,7 +17012,7 @@
     </row>
     <row r="416" spans="1:17">
       <c r="A416" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>78</v>
@@ -16954,7 +17032,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>91</v>
@@ -16968,7 +17046,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>74</v>
@@ -16991,7 +17069,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>83</v>
@@ -16999,7 +17077,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>83</v>
@@ -17017,12 +17095,12 @@
         <v>74</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>74</v>
@@ -17033,7 +17111,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>97</v>
@@ -17050,7 +17128,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>72</v>
@@ -17073,7 +17151,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>79</v>
@@ -17090,7 +17168,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>78</v>
@@ -17107,7 +17185,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>74</v>
@@ -17121,7 +17199,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>83</v>
@@ -17132,7 +17210,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>83</v>
@@ -17143,7 +17221,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>74</v>
@@ -17160,7 +17238,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>83</v>
@@ -17171,7 +17249,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>80</v>
@@ -17188,7 +17266,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>79</v>
@@ -17203,15 +17281,15 @@
         <v>83</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="A433" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>74</v>
@@ -17226,7 +17304,7 @@
         <v>74</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H433" s="3" t="s">
         <v>74</v>
@@ -17234,7 +17312,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>74</v>
@@ -17245,7 +17323,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>89</v>
@@ -17262,7 +17340,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>83</v>
@@ -17273,15 +17351,15 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>80</v>
@@ -17298,7 +17376,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>113</v>
@@ -17309,7 +17387,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>86</v>
@@ -17326,7 +17404,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>83</v>
@@ -17346,7 +17424,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>83</v>
@@ -17363,20 +17441,23 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="A444" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="A445" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>89</v>
@@ -17387,17 +17468,17 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>74</v>
@@ -17417,7 +17498,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>83</v>
@@ -17437,7 +17518,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>74</v>
@@ -17451,7 +17532,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>74</v>
@@ -17459,7 +17540,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>74</v>
@@ -17476,7 +17557,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>83</v>
@@ -17487,7 +17568,7 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>74</v>
@@ -17495,7 +17576,7 @@
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>74</v>
@@ -17515,7 +17596,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>74</v>
@@ -17535,7 +17616,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>80</v>
@@ -17552,7 +17633,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>83</v>
@@ -17566,7 +17647,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>89</v>
@@ -17583,7 +17664,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I460" s="4" t="s">
         <v>94</v>
@@ -17591,7 +17672,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>74</v>
@@ -17608,7 +17689,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>89</v>
@@ -17623,12 +17704,12 @@
         <v>74</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="463" spans="1:9">
       <c r="A463" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>109</v>
@@ -17639,7 +17720,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>100</v>
@@ -17647,7 +17728,7 @@
     </row>
     <row r="465" spans="1:20">
       <c r="A465" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>113</v>
@@ -17664,7 +17745,7 @@
     </row>
     <row r="466" spans="1:20">
       <c r="A466" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>74</v>
@@ -17687,7 +17768,7 @@
     </row>
     <row r="467" spans="1:20">
       <c r="A467" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>139</v>
@@ -17698,7 +17779,7 @@
     </row>
     <row r="468" spans="1:20">
       <c r="A468" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>74</v>
@@ -17712,7 +17793,7 @@
     </row>
     <row r="469" spans="1:20">
       <c r="A469" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>74</v>
@@ -17721,7 +17802,7 @@
         <v>78</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>80</v>
@@ -17732,7 +17813,7 @@
     </row>
     <row r="470" spans="1:20">
       <c r="A470" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>83</v>
@@ -17758,7 +17839,7 @@
     </row>
     <row r="471" spans="1:20">
       <c r="A471" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>78</v>
@@ -17781,7 +17862,7 @@
     </row>
     <row r="472" spans="1:20">
       <c r="A472" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>74</v>
@@ -17798,7 +17879,7 @@
     </row>
     <row r="473" spans="1:20">
       <c r="A473" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>74</v>
@@ -17812,7 +17893,7 @@
     </row>
     <row r="474" spans="1:20">
       <c r="A474" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>74</v>
@@ -17838,7 +17919,7 @@
     </row>
     <row r="475" spans="1:20">
       <c r="A475" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>80</v>
@@ -17855,7 +17936,7 @@
     </row>
     <row r="476" spans="1:20">
       <c r="A476" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>89</v>
@@ -17872,7 +17953,7 @@
     </row>
     <row r="477" spans="1:20">
       <c r="A477" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>74</v>
@@ -17886,7 +17967,7 @@
     </row>
     <row r="478" spans="1:20">
       <c r="A478" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>80</v>
@@ -17906,7 +17987,7 @@
     </row>
     <row r="479" spans="1:20">
       <c r="A479" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>74</v>
@@ -17923,7 +18004,7 @@
     </row>
     <row r="480" spans="1:20">
       <c r="A480" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>74</v>
@@ -17940,7 +18021,7 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>74</v>
@@ -17951,7 +18032,7 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>83</v>
@@ -17974,7 +18055,7 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>74</v>
@@ -17991,7 +18072,7 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>248</v>
@@ -18011,7 +18092,7 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>83</v>
@@ -18031,7 +18112,7 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>74</v>
@@ -18051,12 +18132,12 @@
     </row>
     <row r="487" spans="1:13">
       <c r="A487" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="488" spans="1:13">
       <c r="A488" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>109</v>
@@ -18065,12 +18146,12 @@
         <v>74</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="489" spans="1:13">
       <c r="A489" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>83</v>
@@ -18084,7 +18165,7 @@
     </row>
     <row r="490" spans="1:13">
       <c r="A490" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>74</v>
@@ -18098,7 +18179,7 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>74</v>
@@ -18121,7 +18202,7 @@
     </row>
     <row r="492" spans="1:13">
       <c r="A492" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>74</v>
@@ -18138,12 +18219,12 @@
     </row>
     <row r="493" spans="1:13">
       <c r="A493" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="494" spans="1:13">
       <c r="A494" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>89</v>
@@ -18160,7 +18241,7 @@
     </row>
     <row r="495" spans="1:13">
       <c r="A495" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>83</v>
@@ -18174,7 +18255,7 @@
     </row>
     <row r="496" spans="1:13">
       <c r="A496" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>74</v>
@@ -18194,7 +18275,7 @@
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>74</v>
@@ -18208,7 +18289,7 @@
     </row>
     <row r="498" spans="1:9">
       <c r="A498" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>89</v>
@@ -18216,7 +18297,7 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>89</v>
@@ -18236,7 +18317,7 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>91</v>
@@ -18262,7 +18343,7 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>78</v>
@@ -18270,7 +18351,7 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>74</v>
@@ -18290,7 +18371,7 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>86</v>
@@ -18302,12 +18383,12 @@
         <v>86</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="A504" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>74</v>
@@ -18324,10 +18405,10 @@
     </row>
     <row r="505" spans="1:9">
       <c r="A505" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>74</v>
@@ -18353,7 +18434,7 @@
     </row>
     <row r="506" spans="1:9">
       <c r="A506" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>74</v>
@@ -18367,7 +18448,7 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>74</v>
@@ -18387,7 +18468,7 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>83</v>
@@ -18410,7 +18491,7 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>81</v>
@@ -18430,7 +18511,7 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>83</v>
@@ -18447,7 +18528,7 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>69</v>
@@ -18461,7 +18542,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>83</v>
@@ -18469,7 +18550,7 @@
     </row>
     <row r="513" spans="1:23">
       <c r="A513" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>79</v>
@@ -18504,7 +18585,7 @@
     </row>
     <row r="514" spans="1:23">
       <c r="A514" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>74</v>
@@ -18524,7 +18605,7 @@
     </row>
     <row r="515" spans="1:23">
       <c r="A515" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>99</v>
@@ -18532,7 +18613,7 @@
     </row>
     <row r="516" spans="1:23">
       <c r="A516" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>89</v>
@@ -18546,7 +18627,7 @@
     </row>
     <row r="517" spans="1:23">
       <c r="A517" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C517" s="3" t="s">
         <v>83</v>
@@ -18554,7 +18635,7 @@
     </row>
     <row r="518" spans="1:23">
       <c r="A518" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>74</v>
@@ -18571,7 +18652,7 @@
     </row>
     <row r="519" spans="1:23">
       <c r="A519" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>148</v>
@@ -18588,7 +18669,7 @@
     </row>
     <row r="520" spans="1:23">
       <c r="A520" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>79</v>
@@ -18617,7 +18698,7 @@
     </row>
     <row r="521" spans="1:23">
       <c r="A521" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>74</v>
@@ -18625,7 +18706,7 @@
     </row>
     <row r="522" spans="1:23">
       <c r="A522" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>89</v>
@@ -18672,7 +18753,7 @@
     </row>
     <row r="523" spans="1:23">
       <c r="A523" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>74</v>
@@ -18701,7 +18782,7 @@
     </row>
     <row r="524" spans="1:23">
       <c r="A524" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>74</v>
@@ -18721,7 +18802,7 @@
     </row>
     <row r="525" spans="1:23">
       <c r="A525" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>79</v>
@@ -18744,7 +18825,7 @@
     </row>
     <row r="526" spans="1:23">
       <c r="A526" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C526" s="3" t="s">
         <v>89</v>
@@ -18752,7 +18833,7 @@
     </row>
     <row r="527" spans="1:23">
       <c r="A527" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>74</v>
@@ -18769,7 +18850,7 @@
     </row>
     <row r="528" spans="1:23">
       <c r="A528" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>74</v>
@@ -18785,11 +18866,14 @@
       </c>
       <c r="G528" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="N528" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="529" spans="1:20">
       <c r="A529" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>79</v>
@@ -18806,7 +18890,7 @@
     </row>
     <row r="530" spans="1:20">
       <c r="A530" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>74</v>
@@ -18829,7 +18913,7 @@
     </row>
     <row r="531" spans="1:20">
       <c r="A531" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>79</v>
@@ -18852,7 +18936,7 @@
     </row>
     <row r="532" spans="1:20">
       <c r="A532" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>74</v>
@@ -18875,7 +18959,7 @@
     </row>
     <row r="533" spans="1:20">
       <c r="A533" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>78</v>
@@ -18886,7 +18970,7 @@
     </row>
     <row r="534" spans="1:20">
       <c r="A534" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>74</v>
@@ -18903,7 +18987,7 @@
     </row>
     <row r="535" spans="1:20">
       <c r="A535" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>109</v>
@@ -18920,7 +19004,7 @@
     </row>
     <row r="536" spans="1:20">
       <c r="A536" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>74</v>
@@ -18940,7 +19024,7 @@
     </row>
     <row r="537" spans="1:20">
       <c r="A537" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>74</v>
@@ -18966,7 +19050,7 @@
     </row>
     <row r="538" spans="1:20">
       <c r="A538" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>80</v>
@@ -19010,7 +19094,7 @@
     </row>
     <row r="539" spans="1:20">
       <c r="A539" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>74</v>
@@ -19030,7 +19114,7 @@
     </row>
     <row r="540" spans="1:20">
       <c r="A540" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>83</v>
@@ -19044,7 +19128,7 @@
     </row>
     <row r="541" spans="1:20">
       <c r="A541" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>83</v>
@@ -19055,7 +19139,7 @@
     </row>
     <row r="542" spans="1:20">
       <c r="A542" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>92</v>
@@ -19069,7 +19153,7 @@
     </row>
     <row r="543" spans="1:20">
       <c r="A543" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>74</v>
@@ -19095,7 +19179,7 @@
     </row>
     <row r="544" spans="1:20">
       <c r="A544" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>83</v>
@@ -19115,7 +19199,7 @@
     </row>
     <row r="545" spans="1:25">
       <c r="A545" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>83</v>
@@ -19129,7 +19213,7 @@
     </row>
     <row r="546" spans="1:25">
       <c r="A546" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>191</v>
@@ -19140,7 +19224,7 @@
     </row>
     <row r="547" spans="1:25">
       <c r="A547" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>82</v>
@@ -19154,7 +19238,7 @@
     </row>
     <row r="548" spans="1:25">
       <c r="A548" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>113</v>
@@ -19198,7 +19282,7 @@
     </row>
     <row r="549" spans="1:25">
       <c r="A549" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C549" s="3" t="s">
         <v>74</v>
@@ -19206,7 +19290,7 @@
     </row>
     <row r="550" spans="1:25">
       <c r="A550" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>74</v>
@@ -19220,7 +19304,7 @@
     </row>
     <row r="551" spans="1:25">
       <c r="A551" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>83</v>
@@ -19246,7 +19330,7 @@
     </row>
     <row r="552" spans="1:25">
       <c r="A552" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>89</v>
@@ -19269,7 +19353,7 @@
     </row>
     <row r="553" spans="1:25">
       <c r="A553" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>74</v>
@@ -19298,7 +19382,7 @@
     </row>
     <row r="554" spans="1:25">
       <c r="A554" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>94</v>
@@ -19306,7 +19390,7 @@
     </row>
     <row r="555" spans="1:25">
       <c r="A555" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>83</v>
@@ -19317,7 +19401,7 @@
     </row>
     <row r="556" spans="1:25">
       <c r="A556" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>91</v>
@@ -19328,7 +19412,7 @@
     </row>
     <row r="557" spans="1:25">
       <c r="A557" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>113</v>
@@ -19342,7 +19426,7 @@
     </row>
     <row r="558" spans="1:25">
       <c r="A558" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>74</v>
@@ -19353,7 +19437,7 @@
     </row>
     <row r="559" spans="1:25">
       <c r="A559" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>86</v>
@@ -19391,7 +19475,7 @@
     </row>
     <row r="560" spans="1:25">
       <c r="A560" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>83</v>
@@ -19405,7 +19489,7 @@
     </row>
     <row r="561" spans="1:18">
       <c r="A561" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>89</v>
@@ -19422,7 +19506,7 @@
     </row>
     <row r="562" spans="1:18">
       <c r="A562" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>74</v>
@@ -19436,7 +19520,7 @@
     </row>
     <row r="563" spans="1:18">
       <c r="A563" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>83</v>
@@ -19480,7 +19564,7 @@
     </row>
     <row r="564" spans="1:18">
       <c r="A564" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>83</v>
@@ -19488,7 +19572,7 @@
     </row>
     <row r="565" spans="1:18">
       <c r="A565" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>74</v>
@@ -19502,7 +19586,7 @@
     </row>
     <row r="566" spans="1:18">
       <c r="A566" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C566" s="3" t="s">
         <v>74</v>
@@ -19513,12 +19597,12 @@
     </row>
     <row r="567" spans="1:18">
       <c r="A567" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="568" spans="1:18">
       <c r="A568" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>74</v>
@@ -19532,15 +19616,18 @@
     </row>
     <row r="569" spans="1:18">
       <c r="A569" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E569" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="570" spans="1:18">
       <c r="A570" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>150</v>
@@ -19549,12 +19636,12 @@
         <v>78</v>
       </c>
       <c r="I570" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="571" spans="1:18">
       <c r="A571" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>74</v>
@@ -19571,7 +19658,7 @@
     </row>
     <row r="572" spans="1:18">
       <c r="A572" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D572" s="3" t="s">
         <v>113</v>
@@ -19582,7 +19669,7 @@
     </row>
     <row r="573" spans="1:18">
       <c r="A573" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>83</v>
@@ -19596,7 +19683,7 @@
     </row>
     <row r="574" spans="1:18">
       <c r="A574" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>114</v>
@@ -19604,7 +19691,7 @@
     </row>
     <row r="575" spans="1:18">
       <c r="A575" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>79</v>
@@ -19618,7 +19705,7 @@
     </row>
     <row r="576" spans="1:18">
       <c r="A576" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F576" s="4" t="s">
         <v>150</v>
@@ -19626,7 +19713,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>83</v>
@@ -19643,7 +19730,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C578" s="3" t="s">
         <v>74</v>
@@ -19651,7 +19738,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C579" s="3" t="s">
         <v>83</v>
@@ -19659,20 +19746,20 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="581" spans="1:10">
       <c r="A581" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="582" spans="1:10">
       <c r="A582" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>91</v>
@@ -19686,7 +19773,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>83</v>
@@ -19709,7 +19796,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>99</v>
@@ -19720,7 +19807,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>89</v>
@@ -19743,7 +19830,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>143</v>
@@ -19763,7 +19850,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>89</v>
@@ -19783,7 +19870,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>113</v>
@@ -19803,7 +19890,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>83</v>
@@ -19817,7 +19904,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>89</v>
@@ -19828,7 +19915,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>74</v>
@@ -19845,12 +19932,12 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="593" spans="1:26">
       <c r="A593" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>74</v>
@@ -19858,7 +19945,7 @@
     </row>
     <row r="594" spans="1:26">
       <c r="A594" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>83</v>
@@ -19869,12 +19956,12 @@
     </row>
     <row r="595" spans="1:26">
       <c r="A595" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="596" spans="1:26">
       <c r="A596" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C596" s="3" t="s">
         <v>224</v>
@@ -19882,7 +19969,7 @@
     </row>
     <row r="597" spans="1:26">
       <c r="A597" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>74</v>
@@ -19893,12 +19980,12 @@
     </row>
     <row r="598" spans="1:26">
       <c r="A598" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="599" spans="1:26">
       <c r="A599" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C599" s="3" t="s">
         <v>74</v>
@@ -19906,17 +19993,17 @@
     </row>
     <row r="600" spans="1:26">
       <c r="A600" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="601" spans="1:26">
       <c r="A601" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="602" spans="1:26">
       <c r="A602" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>83</v>
@@ -19930,7 +20017,7 @@
     </row>
     <row r="603" spans="1:26">
       <c r="A603" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>79</v>
@@ -19941,7 +20028,7 @@
     </row>
     <row r="604" spans="1:26">
       <c r="A604" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>89</v>
@@ -19958,7 +20045,7 @@
     </row>
     <row r="605" spans="1:26">
       <c r="A605" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>74</v>
@@ -19972,7 +20059,7 @@
     </row>
     <row r="606" spans="1:26">
       <c r="A606" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>78</v>
@@ -20019,7 +20106,7 @@
     </row>
     <row r="607" spans="1:26">
       <c r="A607" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>83</v>
@@ -20033,7 +20120,7 @@
     </row>
     <row r="608" spans="1:26">
       <c r="A608" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>77</v>
@@ -20047,7 +20134,7 @@
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>83</v>
@@ -20070,7 +20157,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="A610" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>74</v>
@@ -20087,7 +20174,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>74</v>
@@ -20101,7 +20188,7 @@
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>74</v>
@@ -20109,7 +20196,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D613" s="3" t="s">
         <v>72</v>
@@ -20120,7 +20207,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C614" s="3" t="s">
         <v>74</v>
@@ -20128,7 +20215,7 @@
     </row>
     <row r="615" spans="1:12">
       <c r="A615" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>78</v>
@@ -20163,7 +20250,7 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>172</v>
@@ -20171,17 +20258,17 @@
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="619" spans="1:12">
       <c r="A619" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>79</v>
@@ -20189,7 +20276,7 @@
     </row>
     <row r="620" spans="1:12">
       <c r="A620" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D620" s="3" t="s">
         <v>89</v>
@@ -20197,17 +20284,17 @@
     </row>
     <row r="621" spans="1:12">
       <c r="A621" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="622" spans="1:12">
       <c r="A622" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="623" spans="1:12">
       <c r="A623" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>99</v>
@@ -20218,12 +20305,12 @@
     </row>
     <row r="624" spans="1:12">
       <c r="A624" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="625" spans="1:7">
       <c r="A625" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>79</v>
@@ -20231,17 +20318,17 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="627" spans="1:7">
       <c r="A627" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="628" spans="1:7">
       <c r="A628" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>79</v>
@@ -20255,12 +20342,12 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="630" spans="1:7">
       <c r="A630" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>129</v>
@@ -20274,7 +20361,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>79</v>
@@ -20282,7 +20369,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>83</v>
@@ -20305,7 +20392,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>113</v>
@@ -20313,12 +20400,12 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>78</v>
@@ -20332,7 +20419,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>74</v>
@@ -20346,7 +20433,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C637" s="3" t="s">
         <v>74</v>
@@ -20354,7 +20441,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>97</v>
@@ -20371,7 +20458,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>113</v>
@@ -20385,7 +20472,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>74</v>
@@ -20396,7 +20483,7 @@
     </row>
     <row r="641" spans="1:23">
       <c r="A641" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>97</v>
@@ -20404,7 +20491,7 @@
     </row>
     <row r="642" spans="1:23">
       <c r="A642" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>74</v>
@@ -20430,7 +20517,7 @@
     </row>
     <row r="643" spans="1:23">
       <c r="A643" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>74</v>
@@ -20447,7 +20534,7 @@
     </row>
     <row r="644" spans="1:23">
       <c r="A644" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C644" s="3" t="s">
         <v>79</v>
@@ -20458,12 +20545,12 @@
     </row>
     <row r="645" spans="1:23">
       <c r="A645" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="646" spans="1:23">
       <c r="A646" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>74</v>
@@ -20489,7 +20576,7 @@
     </row>
     <row r="647" spans="1:23">
       <c r="A647" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C647" s="3" t="s">
         <v>83</v>
@@ -20497,7 +20584,7 @@
     </row>
     <row r="648" spans="1:23">
       <c r="A648" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>113</v>
@@ -20520,7 +20607,7 @@
     </row>
     <row r="649" spans="1:23">
       <c r="A649" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>89</v>
@@ -20531,7 +20618,7 @@
     </row>
     <row r="650" spans="1:23">
       <c r="A650" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>89</v>
@@ -20551,7 +20638,7 @@
     </row>
     <row r="651" spans="1:23">
       <c r="A651" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>74</v>
@@ -20577,7 +20664,7 @@
     </row>
     <row r="652" spans="1:23">
       <c r="A652" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>74</v>
@@ -20621,7 +20708,7 @@
     </row>
     <row r="653" spans="1:23">
       <c r="A653" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D653" s="3" t="s">
         <v>83</v>
@@ -20632,7 +20719,7 @@
     </row>
     <row r="654" spans="1:23">
       <c r="A654" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>74</v>
@@ -20649,7 +20736,7 @@
     </row>
     <row r="655" spans="1:23">
       <c r="A655" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>114</v>
@@ -20660,7 +20747,7 @@
     </row>
     <row r="656" spans="1:23">
       <c r="A656" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>128</v>
@@ -20674,7 +20761,7 @@
     </row>
     <row r="657" spans="1:8">
       <c r="A657" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>74</v>
@@ -20700,7 +20787,7 @@
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>74</v>
@@ -20717,7 +20804,7 @@
     </row>
     <row r="659" spans="1:8">
       <c r="A659" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>72</v>
@@ -20728,7 +20815,7 @@
     </row>
     <row r="660" spans="1:8">
       <c r="A660" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>74</v>
@@ -20748,7 +20835,7 @@
     </row>
     <row r="661" spans="1:8">
       <c r="A661" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D661" s="3" t="s">
         <v>99</v>
@@ -20756,7 +20843,7 @@
     </row>
     <row r="662" spans="1:8">
       <c r="A662" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>74</v>
@@ -20767,7 +20854,7 @@
     </row>
     <row r="663" spans="1:8">
       <c r="A663" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>74</v>
@@ -20778,12 +20865,12 @@
     </row>
     <row r="664" spans="1:8">
       <c r="A664" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="665" spans="1:8">
       <c r="A665" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>83</v>
@@ -20791,17 +20878,17 @@
     </row>
     <row r="666" spans="1:8">
       <c r="A666" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="667" spans="1:8">
       <c r="A667" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="668" spans="1:8">
       <c r="A668" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>113</v>
@@ -20815,7 +20902,7 @@
     </row>
     <row r="669" spans="1:8">
       <c r="A669" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>80</v>
@@ -20823,21 +20910,21 @@
     </row>
     <row r="670" spans="1:8">
       <c r="A670" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E670" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="671" spans="1:8">
       <c r="A671" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E671" s="4" t="s">
         <v>150</v>
@@ -20845,12 +20932,12 @@
     </row>
     <row r="672" spans="1:8">
       <c r="A672" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="673" spans="1:18">
       <c r="A673" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>79</v>
@@ -20876,7 +20963,7 @@
     </row>
     <row r="674" spans="1:18">
       <c r="A674" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>74</v>
@@ -20896,7 +20983,7 @@
     </row>
     <row r="675" spans="1:18">
       <c r="A675" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>83</v>
@@ -20913,7 +21000,7 @@
     </row>
     <row r="676" spans="1:18">
       <c r="A676" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>74</v>
@@ -20936,7 +21023,7 @@
     </row>
     <row r="677" spans="1:18">
       <c r="A677" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>83</v>
@@ -20950,7 +21037,7 @@
     </row>
     <row r="678" spans="1:18">
       <c r="A678" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>74</v>
@@ -20967,7 +21054,7 @@
     </row>
     <row r="679" spans="1:18">
       <c r="A679" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>74</v>
@@ -20987,7 +21074,7 @@
     </row>
     <row r="680" spans="1:18">
       <c r="A680" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>89</v>
@@ -21001,7 +21088,7 @@
     </row>
     <row r="681" spans="1:18">
       <c r="A681" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>83</v>
@@ -21010,12 +21097,12 @@
         <v>74</v>
       </c>
       <c r="I681" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="682" spans="1:18">
       <c r="A682" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>104</v>
@@ -21032,7 +21119,7 @@
     </row>
     <row r="683" spans="1:18">
       <c r="A683" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>99</v>
@@ -21052,7 +21139,7 @@
     </row>
     <row r="684" spans="1:18">
       <c r="A684" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>91</v>
@@ -21084,7 +21171,7 @@
     </row>
     <row r="685" spans="1:18">
       <c r="A685" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>74</v>
@@ -21107,7 +21194,7 @@
     </row>
     <row r="686" spans="1:18">
       <c r="A686" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>110</v>
@@ -21119,7 +21206,7 @@
         <v>74</v>
       </c>
       <c r="F686" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L686" s="4" t="s">
         <v>111</v>
@@ -21130,7 +21217,7 @@
     </row>
     <row r="687" spans="1:18">
       <c r="A687" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>74</v>
@@ -21139,7 +21226,7 @@
         <v>74</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E687" s="3" t="s">
         <v>74</v>
@@ -21165,7 +21252,7 @@
     </row>
     <row r="688" spans="1:18">
       <c r="A688" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>74</v>
@@ -21179,7 +21266,7 @@
     </row>
     <row r="689" spans="1:22">
       <c r="A689" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>80</v>
@@ -21223,7 +21310,7 @@
     </row>
     <row r="690" spans="1:22">
       <c r="A690" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>74</v>
@@ -21237,7 +21324,7 @@
     </row>
     <row r="691" spans="1:22">
       <c r="A691" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>83</v>
@@ -21266,7 +21353,7 @@
     </row>
     <row r="692" spans="1:22">
       <c r="A692" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>74</v>
@@ -21280,7 +21367,7 @@
     </row>
     <row r="693" spans="1:22">
       <c r="A693" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>91</v>
@@ -21297,7 +21384,7 @@
     </row>
     <row r="694" spans="1:22">
       <c r="A694" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>78</v>
@@ -21335,7 +21422,7 @@
     </row>
     <row r="695" spans="1:22">
       <c r="A695" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>89</v>
@@ -21352,7 +21439,7 @@
     </row>
     <row r="696" spans="1:22">
       <c r="A696" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>271</v>
@@ -21366,7 +21453,7 @@
     </row>
     <row r="697" spans="1:22">
       <c r="A697" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>89</v>
@@ -21392,7 +21479,7 @@
     </row>
     <row r="698" spans="1:22">
       <c r="A698" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>78</v>
@@ -21409,10 +21496,10 @@
     </row>
     <row r="699" spans="1:22">
       <c r="A699" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D699" s="3" t="s">
         <v>113</v>
@@ -21423,7 +21510,7 @@
     </row>
     <row r="700" spans="1:22">
       <c r="A700" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>110</v>
@@ -21464,7 +21551,7 @@
     </row>
     <row r="701" spans="1:22">
       <c r="A701" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>143</v>
@@ -21494,7 +21581,7 @@
         <v>78</v>
       </c>
       <c r="L701" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="N701" s="3" t="s">
         <v>78</v>
@@ -21508,7 +21595,7 @@
     </row>
     <row r="702" spans="1:22">
       <c r="A702" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>91</v>
@@ -21531,7 +21618,7 @@
     </row>
     <row r="703" spans="1:22">
       <c r="A703" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>89</v>
@@ -21557,7 +21644,7 @@
     </row>
     <row r="704" spans="1:22">
       <c r="A704" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>83</v>
@@ -21574,7 +21661,7 @@
     </row>
     <row r="705" spans="1:24">
       <c r="A705" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>83</v>
@@ -21591,7 +21678,7 @@
     </row>
     <row r="706" spans="1:24">
       <c r="A706" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>74</v>
@@ -21638,7 +21725,7 @@
     </row>
     <row r="707" spans="1:24">
       <c r="A707" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>89</v>
@@ -21652,7 +21739,7 @@
     </row>
     <row r="708" spans="1:24">
       <c r="A708" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>74</v>
@@ -21666,7 +21753,7 @@
     </row>
     <row r="709" spans="1:24">
       <c r="A709" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>74</v>
@@ -21675,7 +21762,7 @@
         <v>83</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E709" s="3" t="s">
         <v>74</v>
@@ -21689,7 +21776,7 @@
     </row>
     <row r="710" spans="1:24">
       <c r="A710" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>89</v>
@@ -21712,7 +21799,7 @@
     </row>
     <row r="711" spans="1:24">
       <c r="A711" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>99</v>
@@ -21729,7 +21816,7 @@
     </row>
     <row r="712" spans="1:24">
       <c r="A712" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>74</v>
@@ -21746,7 +21833,7 @@
     </row>
     <row r="713" spans="1:24">
       <c r="A713" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>74</v>
@@ -21760,7 +21847,7 @@
     </row>
     <row r="714" spans="1:24">
       <c r="A714" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>89</v>
@@ -21774,7 +21861,7 @@
     </row>
     <row r="715" spans="1:24">
       <c r="A715" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>83</v>
@@ -21800,12 +21887,12 @@
     </row>
     <row r="716" spans="1:24">
       <c r="A716" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="717" spans="1:24">
       <c r="A717" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>99</v>
@@ -21819,7 +21906,7 @@
     </row>
     <row r="718" spans="1:24">
       <c r="A718" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>74</v>
@@ -21833,7 +21920,7 @@
     </row>
     <row r="719" spans="1:24">
       <c r="A719" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D719" s="3" t="s">
         <v>74</v>
@@ -21844,7 +21931,7 @@
     </row>
     <row r="720" spans="1:24">
       <c r="A720" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>83</v>
@@ -21867,7 +21954,7 @@
     </row>
     <row r="721" spans="1:19">
       <c r="A721" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>79</v>
@@ -21896,7 +21983,7 @@
     </row>
     <row r="722" spans="1:19">
       <c r="A722" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C722" s="3" t="s">
         <v>83</v>
@@ -21907,12 +21994,12 @@
     </row>
     <row r="723" spans="1:19">
       <c r="A723" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="724" spans="1:19">
       <c r="A724" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>89</v>
@@ -21950,7 +22037,7 @@
     </row>
     <row r="725" spans="1:19">
       <c r="A725" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>99</v>
@@ -21961,7 +22048,7 @@
     </row>
     <row r="726" spans="1:19">
       <c r="A726" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>86</v>
@@ -21981,15 +22068,15 @@
     </row>
     <row r="727" spans="1:19">
       <c r="A727" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="728" spans="1:19">
       <c r="A728" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C728" s="3" t="s">
         <v>91</v>
@@ -22003,7 +22090,7 @@
     </row>
     <row r="729" spans="1:19">
       <c r="A729" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>78</v>
@@ -22014,12 +22101,12 @@
     </row>
     <row r="730" spans="1:19">
       <c r="A730" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="731" spans="1:19">
       <c r="A731" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>81</v>
@@ -22033,7 +22120,7 @@
     </row>
     <row r="732" spans="1:19">
       <c r="A732" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>74</v>
@@ -22044,7 +22131,7 @@
     </row>
     <row r="733" spans="1:19">
       <c r="A733" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>79</v>
@@ -22061,12 +22148,15 @@
     </row>
     <row r="734" spans="1:19">
       <c r="A734" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="735" spans="1:19">
       <c r="A735" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E735" s="4" t="s">
         <v>111</v>
@@ -22074,7 +22164,7 @@
     </row>
     <row r="736" spans="1:19">
       <c r="A736" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>89</v>
@@ -22085,7 +22175,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>84</v>
@@ -22099,7 +22189,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>80</v>
@@ -22113,7 +22203,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>99</v>
@@ -22127,7 +22217,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C740" s="3" t="s">
         <v>79</v>
@@ -22135,7 +22225,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>74</v>
@@ -22146,7 +22236,7 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>74</v>
@@ -22160,7 +22250,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>109</v>
@@ -22168,12 +22258,12 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="745" spans="1:7">
       <c r="A745" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>83</v>
@@ -22181,7 +22271,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>78</v>
@@ -22190,7 +22280,7 @@
         <v>99</v>
       </c>
       <c r="E746" s="3" t="s">
-        <v>930</v>
+        <v>246</v>
       </c>
       <c r="F746" s="3" t="s">
         <v>79</v>
@@ -22500,7 +22590,7 @@
         <v>83</v>
       </c>
       <c r="G766" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H766" s="3" t="s">
         <v>83</v>
@@ -22782,7 +22872,7 @@
         <v>89</v>
       </c>
       <c r="F778" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -23405,6 +23495,9 @@
       <c r="A814" s="2" t="s">
         <v>999</v>
       </c>
+      <c r="B814" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C814" s="3" t="s">
         <v>83</v>
       </c>
@@ -23686,7 +23779,7 @@
         <v>1016</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>98</v>
@@ -23704,7 +23797,7 @@
         <v>74</v>
       </c>
       <c r="H831" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="J831" s="3" t="s">
         <v>78</v>
@@ -23868,7 +23961,7 @@
         <v>90</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -24180,7 +24273,7 @@
         <v>1049</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="863" spans="1:18">
@@ -24309,6 +24402,9 @@
       <c r="A870" s="2" t="s">
         <v>1057</v>
       </c>
+      <c r="B870" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D870" s="3" t="s">
         <v>83</v>
       </c>
@@ -24702,7 +24798,7 @@
         <v>83</v>
       </c>
       <c r="K901" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="L901" s="3" t="s">
         <v>74</v>
@@ -24761,7 +24857,7 @@
         <v>89</v>
       </c>
       <c r="T902" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="U902" s="3" t="s">
         <v>90</v>
@@ -24973,7 +25069,7 @@
         <v>81</v>
       </c>
       <c r="J912" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K912" s="3" t="s">
         <v>99</v>
@@ -25404,7 +25500,7 @@
         <v>1128</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
     </row>
     <row r="938" spans="1:18">
@@ -25690,7 +25786,7 @@
         <v>74</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>80</v>
@@ -25908,7 +26004,7 @@
         <v>1149</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>83</v>
@@ -25986,7 +26082,7 @@
         <v>89</v>
       </c>
       <c r="E961" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F961" s="3" t="s">
         <v>89</v>
@@ -26300,6 +26396,9 @@
       <c r="A982" s="2" t="s">
         <v>1174</v>
       </c>
+      <c r="B982" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D982" s="3" t="s">
         <v>74</v>
       </c>
@@ -26961,7 +27060,7 @@
         <v>1238</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1046" spans="1:18">
@@ -26969,7 +27068,7 @@
         <v>1239</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1047" spans="1:18">
@@ -27082,6 +27181,9 @@
       <c r="A1055" s="2" t="s">
         <v>1248</v>
       </c>
+      <c r="B1055" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1056" spans="1:18">
       <c r="A1056" s="2" t="s">
@@ -27419,7 +27521,7 @@
         <v>74</v>
       </c>
       <c r="C1094" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D1094" s="3" t="s">
         <v>74</v>
@@ -28515,7 +28617,7 @@
         <v>78</v>
       </c>
       <c r="E1153" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1154" spans="1:18">
@@ -28807,7 +28909,7 @@
         <v>74</v>
       </c>
       <c r="D1170" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>72</v>
@@ -28961,7 +29063,7 @@
         <v>93</v>
       </c>
       <c r="I1184" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1185" spans="1:13">
@@ -28971,6 +29073,9 @@
       <c r="B1185" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C1185" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="1186" spans="1:13">
       <c r="A1186" s="2" t="s">
@@ -29082,7 +29187,7 @@
         <v>74</v>
       </c>
       <c r="D1192" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1192" s="3" t="s">
         <v>74</v>
@@ -29125,7 +29230,7 @@
         <v>1393</v>
       </c>
       <c r="E1194" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I1194" s="3" t="s">
         <v>1394</v>
@@ -29440,7 +29545,7 @@
         <v>1419</v>
       </c>
       <c r="E1218" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1219" spans="1:12">
@@ -30022,7 +30127,7 @@
         <v>1464</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -30255,7 +30360,7 @@
         <v>1489</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>79</v>
@@ -30659,7 +30764,7 @@
         <v>1535</v>
       </c>
       <c r="B1334" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
@@ -30776,7 +30881,7 @@
         <v>1550</v>
       </c>
       <c r="B1349" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1350" spans="1:4">
@@ -31042,6 +31147,9 @@
       <c r="A1376" s="2" t="s">
         <v>1578</v>
       </c>
+      <c r="B1376" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1377" spans="1:5">
       <c r="A1377" s="2" t="s">
@@ -31198,7 +31306,7 @@
         <v>89</v>
       </c>
       <c r="E1389" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -31327,7 +31435,7 @@
         <v>1603</v>
       </c>
       <c r="B1401" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E1401" s="3" t="s">
         <v>74</v>
@@ -31359,6 +31467,9 @@
       <c r="B1404" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1404" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="I1404" s="4" t="s">
         <v>94</v>
       </c>
@@ -31666,7 +31777,7 @@
         <v>1633</v>
       </c>
       <c r="D1431" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1432" spans="1:20">
@@ -31760,6 +31871,9 @@
       <c r="A1441" s="2" t="s">
         <v>1643</v>
       </c>
+      <c r="B1441" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="C1441" s="3" t="s">
         <v>83</v>
       </c>
@@ -31768,11 +31882,20 @@
       <c r="A1442" s="2" t="s">
         <v>1644</v>
       </c>
+      <c r="B1442" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1442" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1443" spans="1:14">
       <c r="A1443" s="2" t="s">
         <v>1645</v>
       </c>
+      <c r="B1443" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C1443" s="3" t="s">
         <v>86</v>
       </c>
@@ -32136,7 +32259,7 @@
         <v>1685</v>
       </c>
       <c r="B1483" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1484" spans="1:18">
@@ -32166,7 +32289,7 @@
         <v>1688</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="E1486" s="4" t="s">
         <v>94</v>
@@ -32177,7 +32300,7 @@
         <v>1689</v>
       </c>
       <c r="D1487" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1488" spans="1:18">
@@ -32311,7 +32434,7 @@
         <v>1701</v>
       </c>
       <c r="D1497" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1498" spans="1:13">
@@ -32336,7 +32459,7 @@
         <v>1703</v>
       </c>
       <c r="M1499" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1500" spans="1:13">
@@ -32516,7 +32639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1521" spans="1:9">
+    <row r="1521" spans="1:13">
       <c r="A1521" s="2" t="s">
         <v>1725</v>
       </c>
@@ -32526,8 +32649,11 @@
       <c r="D1521" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="1522" spans="1:9">
+      <c r="M1521" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:13">
       <c r="A1522" s="2" t="s">
         <v>1726</v>
       </c>
@@ -32538,7 +32664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1523" spans="1:9">
+    <row r="1523" spans="1:13">
       <c r="A1523" s="2" t="s">
         <v>1727</v>
       </c>
@@ -32546,7 +32672,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1524" spans="1:9">
+    <row r="1524" spans="1:13">
       <c r="A1524" s="2" t="s">
         <v>1728</v>
       </c>
@@ -32560,7 +32686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1525" spans="1:9">
+    <row r="1525" spans="1:13">
       <c r="A1525" s="2" t="s">
         <v>1729</v>
       </c>
@@ -32571,7 +32697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1526" spans="1:9">
+    <row r="1526" spans="1:13">
       <c r="A1526" s="2" t="s">
         <v>1730</v>
       </c>
@@ -32582,7 +32708,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1527" spans="1:9">
+    <row r="1527" spans="1:13">
       <c r="A1527" s="2" t="s">
         <v>1731</v>
       </c>
@@ -32593,47 +32719,47 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1528" spans="1:9">
+    <row r="1528" spans="1:13">
       <c r="A1528" s="2" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="1529" spans="1:9">
+    <row r="1529" spans="1:13">
       <c r="A1529" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="1530" spans="1:9">
+    <row r="1530" spans="1:13">
       <c r="A1530" s="2" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="1531" spans="1:9">
+    <row r="1531" spans="1:13">
       <c r="A1531" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="1532" spans="1:9">
+    <row r="1532" spans="1:13">
       <c r="A1532" s="2" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="1533" spans="1:9">
+    <row r="1533" spans="1:13">
       <c r="A1533" s="2" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="1534" spans="1:9">
+    <row r="1534" spans="1:13">
       <c r="A1534" s="2" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="1535" spans="1:9">
+    <row r="1535" spans="1:13">
       <c r="A1535" s="2" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="1536" spans="1:9">
+    <row r="1536" spans="1:13">
       <c r="A1536" s="2" t="s">
         <v>1740</v>
       </c>
@@ -33417,7 +33543,7 @@
         <v>89</v>
       </c>
       <c r="M1633" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1634" spans="1:13">
@@ -33568,7 +33694,7 @@
         <v>191</v>
       </c>
       <c r="M1656" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1657" spans="1:14">
@@ -33604,7 +33730,7 @@
         <v>94</v>
       </c>
       <c r="N1659" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1660" spans="1:14">
@@ -33720,6 +33846,9 @@
       <c r="A1677" s="2" t="s">
         <v>1881</v>
       </c>
+      <c r="B1677" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="1678" spans="1:13">
       <c r="A1678" s="2" t="s">
@@ -34369,7 +34498,7 @@
         <v>1953</v>
       </c>
       <c r="B1749" s="3" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="C1749" s="3" t="s">
         <v>80</v>
@@ -34381,7 +34510,7 @@
         <v>86</v>
       </c>
       <c r="T1749" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1750" spans="1:20">
@@ -35014,7 +35143,7 @@
         <v>2004</v>
       </c>
       <c r="L1800" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1801" spans="1:23">
@@ -35081,22 +35210,22 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1809" spans="1:10">
+    <row r="1809" spans="1:13">
       <c r="A1809" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="1810" spans="1:10">
+    <row r="1810" spans="1:13">
       <c r="A1810" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="1811" spans="1:10">
+    <row r="1811" spans="1:13">
       <c r="A1811" s="2" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="1812" spans="1:10">
+    <row r="1812" spans="1:13">
       <c r="A1812" s="2" t="s">
         <v>2017</v>
       </c>
@@ -35104,12 +35233,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1813" spans="1:10">
+    <row r="1813" spans="1:13">
       <c r="A1813" s="2" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="1814" spans="1:10">
+    <row r="1814" spans="1:13">
       <c r="A1814" s="2" t="s">
         <v>2019</v>
       </c>
@@ -35117,7 +35246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1815" spans="1:10">
+    <row r="1815" spans="1:13">
       <c r="A1815" s="2" t="s">
         <v>2020</v>
       </c>
@@ -35125,17 +35254,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1816" spans="1:10">
+    <row r="1816" spans="1:13">
       <c r="A1816" s="2" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="1817" spans="1:10">
+    <row r="1817" spans="1:13">
       <c r="A1817" s="2" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="1818" spans="1:10">
+    <row r="1818" spans="1:13">
       <c r="A1818" s="2" t="s">
         <v>2023</v>
       </c>
@@ -35145,18 +35274,21 @@
       <c r="J1818" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="1819" spans="1:10">
+      <c r="M1818" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:13">
       <c r="A1819" s="2" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="1820" spans="1:10">
+    <row r="1820" spans="1:13">
       <c r="A1820" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="1821" spans="1:10">
+    <row r="1821" spans="1:13">
       <c r="A1821" s="2" t="s">
         <v>2026</v>
       </c>
@@ -35164,25 +35296,31 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1822" spans="1:10">
+    <row r="1822" spans="1:13">
       <c r="A1822" s="2" t="s">
         <v>2027</v>
       </c>
       <c r="B1822" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1823" spans="1:10">
+      <c r="M1822" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:13">
       <c r="A1823" s="2" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="1824" spans="1:10">
+      <c r="B1823" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:13">
       <c r="A1824" s="2" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="1825" spans="1:10">
+    <row r="1825" spans="1:13">
       <c r="A1825" s="2" t="s">
         <v>2030</v>
       </c>
@@ -35190,31 +35328,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1826" spans="1:10">
+    <row r="1826" spans="1:13">
       <c r="A1826" s="2" t="s">
         <v>2031</v>
       </c>
       <c r="B1826" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1827" spans="1:10">
+      <c r="M1826" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:13">
       <c r="A1827" s="2" t="s">
         <v>2032</v>
       </c>
       <c r="B1827" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1828" spans="1:10">
+      <c r="M1827" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:13">
       <c r="A1828" s="2" t="s">
         <v>2033</v>
       </c>
       <c r="B1828" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1829" spans="1:10">
+      <c r="M1828" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:13">
       <c r="A1829" s="2" t="s">
         <v>2034</v>
       </c>
@@ -35224,23 +35371,26 @@
       <c r="J1829" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1830" spans="1:10">
+      <c r="M1829" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:13">
       <c r="A1830" s="2" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="1831" spans="1:10">
+    <row r="1831" spans="1:13">
       <c r="A1831" s="2" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="1832" spans="1:10">
+    <row r="1832" spans="1:13">
       <c r="A1832" s="2" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="1833" spans="1:10">
+    <row r="1833" spans="1:13">
       <c r="A1833" s="2" t="s">
         <v>2038</v>
       </c>
@@ -35251,7 +35401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1834" spans="1:10">
+    <row r="1834" spans="1:13">
       <c r="A1834" s="2" t="s">
         <v>2039</v>
       </c>
@@ -35262,7 +35412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1835" spans="1:10">
+    <row r="1835" spans="1:13">
       <c r="A1835" s="2" t="s">
         <v>2040</v>
       </c>
@@ -35273,7 +35423,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="1836" spans="1:10">
+    <row r="1836" spans="1:13">
       <c r="A1836" s="2" t="s">
         <v>2042</v>
       </c>
@@ -35281,7 +35431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1837" spans="1:10">
+    <row r="1837" spans="1:13">
       <c r="A1837" s="2" t="s">
         <v>2043</v>
       </c>
@@ -35295,7 +35445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1838" spans="1:10">
+    <row r="1838" spans="1:13">
       <c r="A1838" s="2" t="s">
         <v>2044</v>
       </c>
@@ -35309,7 +35459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1839" spans="1:10">
+    <row r="1839" spans="1:13">
       <c r="A1839" s="2" t="s">
         <v>2046</v>
       </c>
@@ -35320,7 +35470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1840" spans="1:10">
+    <row r="1840" spans="1:13">
       <c r="A1840" s="2" t="s">
         <v>2047</v>
       </c>
@@ -35735,7 +35885,7 @@
         <v>2090</v>
       </c>
       <c r="C1883" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1884" spans="1:13">
@@ -35995,6 +36145,9 @@
       <c r="A1913" s="2" t="s">
         <v>2121</v>
       </c>
+      <c r="B1913" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="C1913" s="3" t="s">
         <v>74</v>
       </c>
@@ -36078,8 +36231,145 @@
         <v>74</v>
       </c>
     </row>
+    <row r="1922" spans="1:3">
+      <c r="A1922" s="2" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3">
+      <c r="A1923" s="2" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3">
+      <c r="A1924" s="2" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3">
+      <c r="A1925" s="2" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3">
+      <c r="A1926" s="2" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3">
+      <c r="A1927" s="2" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3">
+      <c r="A1928" s="2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3">
+      <c r="A1929" s="2" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:3">
+      <c r="A1930" s="2" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3">
+      <c r="A1931" s="2" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3">
+      <c r="A1932" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3">
+      <c r="A1933" s="2" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3">
+      <c r="A1934" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1934" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3">
+      <c r="A1935" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1935" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3">
+      <c r="A1936" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1936" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1937" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1938" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" s="2" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1940" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1941" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1942" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1943" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD1921"/>
+  <autoFilter ref="A1:AD1943"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -38022,6 +38312,28 @@
     <hyperlink ref="A1919" r:id="rId1939"/>
     <hyperlink ref="A1920" r:id="rId1940"/>
     <hyperlink ref="A1921" r:id="rId1941"/>
+    <hyperlink ref="A1922" r:id="rId1942"/>
+    <hyperlink ref="A1923" r:id="rId1943"/>
+    <hyperlink ref="A1924" r:id="rId1944"/>
+    <hyperlink ref="A1925" r:id="rId1945"/>
+    <hyperlink ref="A1926" r:id="rId1946"/>
+    <hyperlink ref="A1927" r:id="rId1947"/>
+    <hyperlink ref="A1928" r:id="rId1948"/>
+    <hyperlink ref="A1929" r:id="rId1949"/>
+    <hyperlink ref="A1930" r:id="rId1950"/>
+    <hyperlink ref="A1931" r:id="rId1951"/>
+    <hyperlink ref="A1932" r:id="rId1952"/>
+    <hyperlink ref="A1933" r:id="rId1953"/>
+    <hyperlink ref="A1934" r:id="rId1954"/>
+    <hyperlink ref="A1935" r:id="rId1955"/>
+    <hyperlink ref="A1936" r:id="rId1956"/>
+    <hyperlink ref="A1937" r:id="rId1957"/>
+    <hyperlink ref="A1938" r:id="rId1958"/>
+    <hyperlink ref="A1939" r:id="rId1959"/>
+    <hyperlink ref="A1940" r:id="rId1960"/>
+    <hyperlink ref="A1941" r:id="rId1961"/>
+    <hyperlink ref="A1942" r:id="rId1962"/>
+    <hyperlink ref="A1943" r:id="rId1963"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8403" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8404" uniqueCount="2153">
   <si>
     <t>№</t>
   </si>
@@ -7063,13 +7063,13 @@
         <v>5831</v>
       </c>
       <c r="I3">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="J3">
-        <v>10447</v>
+        <v>10288</v>
       </c>
       <c r="K3">
-        <v>17274</v>
+        <v>17275</v>
       </c>
       <c r="L3">
         <v>20155</v>
@@ -7078,55 +7078,55 @@
         <v>22846</v>
       </c>
       <c r="N3">
-        <v>25699</v>
+        <v>25702</v>
       </c>
       <c r="O3">
-        <v>26420</v>
+        <v>26421</v>
       </c>
       <c r="P3">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="Q3">
-        <v>48753</v>
+        <v>48755</v>
       </c>
       <c r="R3">
-        <v>50940</v>
+        <v>50943</v>
       </c>
       <c r="S3">
-        <v>51649</v>
+        <v>51651</v>
       </c>
       <c r="T3">
-        <v>58500</v>
+        <v>58503</v>
       </c>
       <c r="U3">
-        <v>61097</v>
+        <v>61100</v>
       </c>
       <c r="V3">
-        <v>68681</v>
+        <v>68683</v>
       </c>
       <c r="W3">
-        <v>90933</v>
+        <v>90936</v>
       </c>
       <c r="X3">
-        <v>95541</v>
+        <v>95546</v>
       </c>
       <c r="Y3">
-        <v>105079</v>
+        <v>105082</v>
       </c>
       <c r="Z3">
-        <v>136236</v>
+        <v>136241</v>
       </c>
       <c r="AA3">
-        <v>162671</v>
+        <v>162676</v>
       </c>
       <c r="AB3">
-        <v>169776</v>
+        <v>169784</v>
       </c>
       <c r="AC3">
-        <v>205541</v>
+        <v>205555</v>
       </c>
       <c r="AD3">
-        <v>242033</v>
+        <v>242056</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7158,7 +7158,7 @@
         <v>2513</v>
       </c>
       <c r="J4">
-        <v>2087</v>
+        <v>2120</v>
       </c>
       <c r="K4">
         <v>1303</v>
@@ -7250,7 +7250,7 @@
         <v>864</v>
       </c>
       <c r="J5">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K5">
         <v>276</v>
@@ -7342,7 +7342,7 @@
         <v>82</v>
       </c>
       <c r="J6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>93</v>
@@ -7526,7 +7526,7 @@
         <v>142</v>
       </c>
       <c r="J8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8">
         <v>104</v>
@@ -15106,6 +15106,9 @@
       </c>
       <c r="F319" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="320" spans="1:20">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7075,7 +7075,7 @@
         <v>20155</v>
       </c>
       <c r="M3">
-        <v>22846</v>
+        <v>22847</v>
       </c>
       <c r="N3">
         <v>25702</v>

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7117,16 +7117,16 @@
         <v>136241</v>
       </c>
       <c r="AA3">
-        <v>162676</v>
+        <v>162677</v>
       </c>
       <c r="AB3">
-        <v>169784</v>
+        <v>169785</v>
       </c>
       <c r="AC3">
-        <v>205555</v>
+        <v>205556</v>
       </c>
       <c r="AD3">
-        <v>242056</v>
+        <v>242057</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7075,58 +7075,58 @@
         <v>20155</v>
       </c>
       <c r="M3">
-        <v>22847</v>
+        <v>22848</v>
       </c>
       <c r="N3">
-        <v>25702</v>
+        <v>25703</v>
       </c>
       <c r="O3">
-        <v>26421</v>
+        <v>26422</v>
       </c>
       <c r="P3">
         <v>44968</v>
       </c>
       <c r="Q3">
-        <v>48755</v>
+        <v>48757</v>
       </c>
       <c r="R3">
-        <v>50943</v>
+        <v>50944</v>
       </c>
       <c r="S3">
-        <v>51651</v>
+        <v>51652</v>
       </c>
       <c r="T3">
-        <v>58503</v>
+        <v>58506</v>
       </c>
       <c r="U3">
-        <v>61100</v>
+        <v>61102</v>
       </c>
       <c r="V3">
-        <v>68683</v>
+        <v>68685</v>
       </c>
       <c r="W3">
-        <v>90936</v>
+        <v>90938</v>
       </c>
       <c r="X3">
-        <v>95546</v>
+        <v>95548</v>
       </c>
       <c r="Y3">
-        <v>105082</v>
+        <v>105084</v>
       </c>
       <c r="Z3">
-        <v>136241</v>
+        <v>136242</v>
       </c>
       <c r="AA3">
-        <v>162677</v>
+        <v>162678</v>
       </c>
       <c r="AB3">
-        <v>169785</v>
+        <v>169786</v>
       </c>
       <c r="AC3">
-        <v>205556</v>
+        <v>205558</v>
       </c>
       <c r="AD3">
-        <v>242057</v>
+        <v>242061</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7057,76 +7057,76 @@
         <v>337</v>
       </c>
       <c r="G3">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="H3">
         <v>5831</v>
       </c>
       <c r="I3">
-        <v>8484</v>
+        <v>8485</v>
       </c>
       <c r="J3">
         <v>10288</v>
       </c>
       <c r="K3">
-        <v>17275</v>
+        <v>17276</v>
       </c>
       <c r="L3">
-        <v>20155</v>
+        <v>20158</v>
       </c>
       <c r="M3">
-        <v>22848</v>
+        <v>22853</v>
       </c>
       <c r="N3">
-        <v>25703</v>
+        <v>25709</v>
       </c>
       <c r="O3">
-        <v>26422</v>
+        <v>26427</v>
       </c>
       <c r="P3">
-        <v>44968</v>
+        <v>44977</v>
       </c>
       <c r="Q3">
-        <v>48757</v>
+        <v>48767</v>
       </c>
       <c r="R3">
-        <v>50944</v>
+        <v>50955</v>
       </c>
       <c r="S3">
-        <v>51652</v>
+        <v>51664</v>
       </c>
       <c r="T3">
-        <v>58506</v>
+        <v>58517</v>
       </c>
       <c r="U3">
-        <v>61102</v>
+        <v>61113</v>
       </c>
       <c r="V3">
-        <v>68685</v>
+        <v>68699</v>
       </c>
       <c r="W3">
-        <v>90938</v>
+        <v>90952</v>
       </c>
       <c r="X3">
-        <v>95548</v>
+        <v>95560</v>
       </c>
       <c r="Y3">
-        <v>105084</v>
+        <v>105102</v>
       </c>
       <c r="Z3">
-        <v>136242</v>
+        <v>136259</v>
       </c>
       <c r="AA3">
-        <v>162678</v>
+        <v>162710</v>
       </c>
       <c r="AB3">
-        <v>169786</v>
+        <v>169822</v>
       </c>
       <c r="AC3">
-        <v>205558</v>
+        <v>205599</v>
       </c>
       <c r="AD3">
-        <v>242061</v>
+        <v>242103</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7084,49 +7084,49 @@
         <v>26427</v>
       </c>
       <c r="P3">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="Q3">
-        <v>48767</v>
+        <v>48768</v>
       </c>
       <c r="R3">
-        <v>50955</v>
+        <v>50956</v>
       </c>
       <c r="S3">
-        <v>51664</v>
+        <v>51665</v>
       </c>
       <c r="T3">
         <v>58517</v>
       </c>
       <c r="U3">
-        <v>61113</v>
+        <v>61114</v>
       </c>
       <c r="V3">
-        <v>68699</v>
+        <v>68700</v>
       </c>
       <c r="W3">
-        <v>90952</v>
+        <v>90954</v>
       </c>
       <c r="X3">
-        <v>95560</v>
+        <v>95563</v>
       </c>
       <c r="Y3">
-        <v>105102</v>
+        <v>105105</v>
       </c>
       <c r="Z3">
-        <v>136259</v>
+        <v>136265</v>
       </c>
       <c r="AA3">
-        <v>162710</v>
+        <v>162713</v>
       </c>
       <c r="AB3">
-        <v>169822</v>
+        <v>169824</v>
       </c>
       <c r="AC3">
-        <v>205599</v>
+        <v>205601</v>
       </c>
       <c r="AD3">
-        <v>242103</v>
+        <v>242105</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7105,16 +7105,16 @@
         <v>68700</v>
       </c>
       <c r="W3">
-        <v>90954</v>
+        <v>90955</v>
       </c>
       <c r="X3">
-        <v>95563</v>
+        <v>95564</v>
       </c>
       <c r="Y3">
         <v>105105</v>
       </c>
       <c r="Z3">
-        <v>136265</v>
+        <v>136266</v>
       </c>
       <c r="AA3">
         <v>162713</v>
@@ -7123,10 +7123,10 @@
         <v>169824</v>
       </c>
       <c r="AC3">
-        <v>205601</v>
+        <v>205602</v>
       </c>
       <c r="AD3">
-        <v>242105</v>
+        <v>242107</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7066,67 +7066,67 @@
         <v>8485</v>
       </c>
       <c r="J3">
-        <v>10288</v>
+        <v>10290</v>
       </c>
       <c r="K3">
-        <v>17276</v>
+        <v>17277</v>
       </c>
       <c r="L3">
-        <v>20158</v>
+        <v>20159</v>
       </c>
       <c r="M3">
-        <v>22853</v>
+        <v>22856</v>
       </c>
       <c r="N3">
-        <v>25709</v>
+        <v>25714</v>
       </c>
       <c r="O3">
-        <v>26427</v>
+        <v>26430</v>
       </c>
       <c r="P3">
-        <v>44978</v>
+        <v>44983</v>
       </c>
       <c r="Q3">
-        <v>48768</v>
+        <v>48779</v>
       </c>
       <c r="R3">
-        <v>50956</v>
+        <v>50967</v>
       </c>
       <c r="S3">
-        <v>51665</v>
+        <v>51676</v>
       </c>
       <c r="T3">
-        <v>58517</v>
+        <v>58529</v>
       </c>
       <c r="U3">
-        <v>61114</v>
+        <v>61127</v>
       </c>
       <c r="V3">
-        <v>68700</v>
+        <v>68713</v>
       </c>
       <c r="W3">
-        <v>90955</v>
+        <v>90962</v>
       </c>
       <c r="X3">
-        <v>95564</v>
+        <v>95570</v>
       </c>
       <c r="Y3">
-        <v>105105</v>
+        <v>105114</v>
       </c>
       <c r="Z3">
-        <v>136266</v>
+        <v>136274</v>
       </c>
       <c r="AA3">
-        <v>162713</v>
+        <v>162723</v>
       </c>
       <c r="AB3">
-        <v>169824</v>
+        <v>169832</v>
       </c>
       <c r="AC3">
-        <v>205602</v>
+        <v>205611</v>
       </c>
       <c r="AD3">
-        <v>242107</v>
+        <v>242119</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7066,67 +7066,67 @@
         <v>8485</v>
       </c>
       <c r="J3">
-        <v>10290</v>
+        <v>10292</v>
       </c>
       <c r="K3">
-        <v>17277</v>
+        <v>17279</v>
       </c>
       <c r="L3">
         <v>20159</v>
       </c>
       <c r="M3">
-        <v>22856</v>
+        <v>22858</v>
       </c>
       <c r="N3">
-        <v>25714</v>
+        <v>25716</v>
       </c>
       <c r="O3">
-        <v>26430</v>
+        <v>26433</v>
       </c>
       <c r="P3">
-        <v>44983</v>
+        <v>44990</v>
       </c>
       <c r="Q3">
-        <v>48779</v>
+        <v>48792</v>
       </c>
       <c r="R3">
-        <v>50967</v>
+        <v>50981</v>
       </c>
       <c r="S3">
-        <v>51676</v>
+        <v>51690</v>
       </c>
       <c r="T3">
-        <v>58529</v>
+        <v>58540</v>
       </c>
       <c r="U3">
-        <v>61127</v>
+        <v>61138</v>
       </c>
       <c r="V3">
-        <v>68713</v>
+        <v>68722</v>
       </c>
       <c r="W3">
-        <v>90962</v>
+        <v>90970</v>
       </c>
       <c r="X3">
-        <v>95570</v>
+        <v>95580</v>
       </c>
       <c r="Y3">
-        <v>105114</v>
+        <v>105130</v>
       </c>
       <c r="Z3">
-        <v>136274</v>
+        <v>136302</v>
       </c>
       <c r="AA3">
-        <v>162723</v>
+        <v>162758</v>
       </c>
       <c r="AB3">
-        <v>169832</v>
+        <v>169867</v>
       </c>
       <c r="AC3">
-        <v>205611</v>
+        <v>205661</v>
       </c>
       <c r="AD3">
-        <v>242119</v>
+        <v>242175</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/acmp_results.xlsx
+++ b/groups/old/acmp_results.xlsx
@@ -7069,64 +7069,64 @@
         <v>10292</v>
       </c>
       <c r="K3">
-        <v>17279</v>
+        <v>17280</v>
       </c>
       <c r="L3">
-        <v>20159</v>
+        <v>20162</v>
       </c>
       <c r="M3">
-        <v>22858</v>
+        <v>22860</v>
       </c>
       <c r="N3">
-        <v>25716</v>
+        <v>25720</v>
       </c>
       <c r="O3">
-        <v>26433</v>
+        <v>26435</v>
       </c>
       <c r="P3">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="Q3">
-        <v>48792</v>
+        <v>48793</v>
       </c>
       <c r="R3">
-        <v>50981</v>
+        <v>50982</v>
       </c>
       <c r="S3">
-        <v>51690</v>
+        <v>51691</v>
       </c>
       <c r="T3">
-        <v>58540</v>
+        <v>58545</v>
       </c>
       <c r="U3">
-        <v>61138</v>
+        <v>61142</v>
       </c>
       <c r="V3">
-        <v>68722</v>
+        <v>68725</v>
       </c>
       <c r="W3">
-        <v>90970</v>
+        <v>90972</v>
       </c>
       <c r="X3">
-        <v>95580</v>
+        <v>95583</v>
       </c>
       <c r="Y3">
-        <v>105130</v>
+        <v>105133</v>
       </c>
       <c r="Z3">
-        <v>136302</v>
+        <v>136309</v>
       </c>
       <c r="AA3">
-        <v>162758</v>
+        <v>162765</v>
       </c>
       <c r="AB3">
-        <v>169867</v>
+        <v>169874</v>
       </c>
       <c r="AC3">
-        <v>205661</v>
+        <v>205669</v>
       </c>
       <c r="AD3">
-        <v>242175</v>
+        <v>242182</v>
       </c>
     </row>
     <row r="4" spans="1:30">
